--- a/signals.xlsx
+++ b/signals.xlsx
@@ -5,15 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/EA7B90198CD15FCB/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea7b90198cd15fcb/Documentos/signal-tracker-v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A4A832-0856-40A3-8737-2FA904D08003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{F9A4A832-0856-40A3-8737-2FA904D08003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254A4E29-C7AC-4AFF-BE14-23D138F41E9C}"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="4185" windowWidth="36240" windowHeight="11295" xr2:uid="{7154C1A3-45CB-46F6-AFB1-3A725F3BAFCE}"/>
+    <workbookView xWindow="19005" yWindow="4185" windowWidth="36240" windowHeight="11295" activeTab="6" xr2:uid="{7154C1A3-45CB-46F6-AFB1-3A725F3BAFCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SignalFeed_v2" sheetId="1" r:id="rId1"/>
+    <sheet name="ImpactMapping_v1" sheetId="2" r:id="rId2"/>
+    <sheet name="Heartbeat_Log" sheetId="3" r:id="rId3"/>
+    <sheet name="AllSignalsArchive" sheetId="4" r:id="rId4"/>
+    <sheet name="ImpactResults_v1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>matcher_name</t>
   </si>
@@ -105,6 +111,186 @@
   </si>
   <si>
     <t>forward_to_engine</t>
+  </si>
+  <si>
+    <t>EventType</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>PrimarySectors</t>
+  </si>
+  <si>
+    <t>ExampleTickers</t>
+  </si>
+  <si>
+    <t>ExpectedImpact</t>
+  </si>
+  <si>
+    <t>Protest</t>
+  </si>
+  <si>
+    <t>Demonstration, Rally, March, Sit-in, Occupy, Civil Unrest</t>
+  </si>
+  <si>
+    <t>Commodity-rich region? Near major ports? Politically stable country?</t>
+  </si>
+  <si>
+    <t>Energy, Mining, Transportation</t>
+  </si>
+  <si>
+    <t>XLE, OXY, BHP, SFL, TSLA</t>
+  </si>
+  <si>
+    <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Walkout, Industrial Action, Labor Stoppage, Work Stoppage, Picket, Lockout</t>
+  </si>
+  <si>
+    <t>Industry-specific (e.g., port workers, pilots, miners)? National vs. regional?</t>
+  </si>
+  <si>
+    <t>Airlines, Shipping, Manufacturing, Logistics</t>
+  </si>
+  <si>
+    <t>DAL, UPS, FDX, CNI, MAERSK</t>
+  </si>
+  <si>
+    <t>Negative for affected industries; bullish for competitors if localized</t>
+  </si>
+  <si>
+    <t>Coup/Political Unrest</t>
+  </si>
+  <si>
+    <t>Coup, Regime Change, Overthrow, Uprising, Insurrection, Revolt</t>
+  </si>
+  <si>
+    <t>Country’s economic importance? Resource exports? Global ties?</t>
+  </si>
+  <si>
+    <t>Emerging Markets ETFs, Local Banks, Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>EEM, VALE, TOT, PBR</t>
+  </si>
+  <si>
+    <t>Risk-off: Negative for local markets; possible safe-haven flows</t>
+  </si>
+  <si>
+    <t>Military Escalation</t>
+  </si>
+  <si>
+    <t>War, Invasion, Conflict, Offensive, Hostilities, Bombing, Missile Strike, Fighting</t>
+  </si>
+  <si>
+    <t>Oil-producing region? NATO involvement? Major shipping lanes?</t>
+  </si>
+  <si>
+    <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens</t>
+  </si>
+  <si>
+    <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
+  </si>
+  <si>
+    <t>Defense bullish; region negative; commodities bullish</t>
+  </si>
+  <si>
+    <t>Natural Disaster</t>
+  </si>
+  <si>
+    <t>Earthquake, Hurricane, Flood, Tornado, Wildfire, Tsunami, Landslide, Blizzard, Storm, Cyclone</t>
+  </si>
+  <si>
+    <t>Scope (localized/national)? Critical infrastructure/agriculture?</t>
+  </si>
+  <si>
+    <t>Insurance, Utilities, Construction, Agriculture</t>
+  </si>
+  <si>
+    <t>MMC, EIX, CAT, DE, ADM</t>
+  </si>
+  <si>
+    <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
+  </si>
+  <si>
+    <t>Cyberattack</t>
+  </si>
+  <si>
+    <t>Hack, Breach, Data Leak, Ransomware, DDoS, Malware Attack, Phishing, Cyber Incident</t>
+  </si>
+  <si>
+    <t>Targeted industries? Nation-state involvement?</t>
+  </si>
+  <si>
+    <t>Cybersecurity, Financials, Utilities, Tech</t>
+  </si>
+  <si>
+    <t>PANW, FTNT, CRWD, JPM, DUK, MSFT</t>
+  </si>
+  <si>
+    <t>Cybersecurity bullish; targets negative</t>
+  </si>
+  <si>
+    <t>Economic Crisis</t>
+  </si>
+  <si>
+    <t>Recession, Depression, Market Crash, Economic Downturn, Financial Collapse, Currency Crisis</t>
+  </si>
+  <si>
+    <t>Global/regional? Debt vs. demand-driven? Central bank intervention?</t>
+  </si>
+  <si>
+    <t>Financials, Consumer Discretionary, Gold, Bonds</t>
+  </si>
+  <si>
+    <t>XLF, JPM, XLY, GLD, TLT</t>
+  </si>
+  <si>
+    <t>Financials negative; Safe-havens bullish</t>
+  </si>
+  <si>
+    <t>Supply Chain Disruption</t>
+  </si>
+  <si>
+    <t>Logistics Delay, Shipping Blockade, Container Shortage, Port Congestion, Transport Interruption, Freight Halt</t>
+  </si>
+  <si>
+    <t>Industry-specific (semis, food)? Geographic chokepoint?</t>
+  </si>
+  <si>
+    <t>Shipping, Logistics, Affected Manufacturing</t>
+  </si>
+  <si>
+    <t>ZIM, MAERSK, AMD, INTC, AMZN, COST</t>
+  </si>
+  <si>
+    <t>Disrupted industries negative; alternate suppliers positive</t>
+  </si>
+  <si>
+    <t>Other/Miscellaneous</t>
+  </si>
+  <si>
+    <t>Irregular Event, Unusual Activity, Unexpected Event, Miscellaneous Incident</t>
+  </si>
+  <si>
+    <t>Evaluate case-by-case with raw_value &amp; keywords</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Context-driven</t>
   </si>
 </sst>
 </file>
@@ -161,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -169,6 +355,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A6209-B4B6-4370-BD52-31F62C9C1739}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -587,4 +774,292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EFCAD0-DEBE-456A-9E49-D0481A23F60A}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90A964F-64DA-4417-A2B6-E5CCA26510CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0AE000-749E-4FBA-AC38-F216EBEF8DCF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7802C48-95D2-48B3-BED5-648AB6C7D307}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D402DC6-0565-4CBF-A185-CA36D75B20E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5778CCD1-58CD-489B-A1D5-4A3B2A0F66A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/signals.xlsx
+++ b/signals.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea7b90198cd15fcb/Documentos/signal-tracker-v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{F9A4A832-0856-40A3-8737-2FA904D08003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254A4E29-C7AC-4AFF-BE14-23D138F41E9C}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{F9A4A832-0856-40A3-8737-2FA904D08003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB60797-2003-4F56-95B0-6988BB457DBA}"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="4185" windowWidth="36240" windowHeight="11295" activeTab="6" xr2:uid="{7154C1A3-45CB-46F6-AFB1-3A725F3BAFCE}"/>
+    <workbookView xWindow="18675" yWindow="2850" windowWidth="36240" windowHeight="11295" xr2:uid="{7154C1A3-45CB-46F6-AFB1-3A725F3BAFCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignalFeed_v2" sheetId="1" r:id="rId1"/>
+    <sheet name="Primary" sheetId="1" r:id="rId1"/>
     <sheet name="ImpactMapping_v1" sheetId="2" r:id="rId2"/>
     <sheet name="Heartbeat_Log" sheetId="3" r:id="rId3"/>
     <sheet name="AllSignalsArchive" sheetId="4" r:id="rId4"/>
@@ -371,6 +371,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A6209-B4B6-4370-BD52-31F62C9C1739}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5778CCD1-58CD-489B-A1D5-4A3B2A0F66A2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,57 +640,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>CDS_CDV_SPIKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Sovereign CDS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>China, Japan, South Korea, Australia, India</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-02T22:57:08.602000</t>
+          <t>2025-06-25T12:42:00Z</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Economic Crisis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.646298</t>
+          <t>2025-08-02T23:13:42.198746</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -699,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.649281</t>
+          <t>2025-08-02T23:13:42.198746</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -737,66 +737,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>PROTEST_CLUSTERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>4 cities in 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Civil Unrest</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Brazil, Argentina, Chile, Colombia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-02T22:56:11.013000</t>
+          <t>2025-06-25T13:05:00Z</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.672286</t>
+          <t>2025-08-02T23:13:42.199749</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.672286</t>
+          <t>2025-08-02T23:13:42.199749</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -834,17 +834,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>MISSILE_WATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Today's News Headlines: Pro-Palestine protest to close Sydney Harbour Bridge</t>
+          <t>BREAKING: Major missile attack strikes capital city</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -854,17 +854,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:40.174000</t>
+          <t>2025-07-07T18:00:00Z</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Strike</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.696291</t>
+          <t>2025-08-02T23:13:42.200748</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.697279</t>
+          <t>2025-08-02T23:13:42.200748</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -941,7 +941,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:30.112000</t>
+          <t>2025-08-02T23:12:38.787000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -977,20 +977,20 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.711303</t>
+          <t>2025-08-02T23:13:47.540662</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.712279</t>
+          <t>2025-08-02T23:13:47.540662</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:08.917000</t>
+          <t>2025-08-02T23:12:37.025000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1074,20 +1074,20 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.722278</t>
+          <t>2025-08-02T23:13:47.555657</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.722278</t>
+          <t>2025-08-02T23:13:47.555657</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Teen Swept Into Drain, Dies As Brother, Mother Watch Helplessly During Flash Flood</t>
+          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-02T22:52:36.908000</t>
+          <t>2025-08-02T23:12:16.970000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1171,20 +1171,20 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.741283</t>
+          <t>2025-08-02T23:13:47.563660</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.742280</t>
+          <t>2025-08-02T23:13:47.563660</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kyiv under Russian missile attack, says Ukraine military</t>
+          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-02T22:47:10.309000</t>
+          <t>2025-08-02T23:11:50.766000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,25 +1263,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.753283</t>
+          <t>2025-08-02T23:13:47.577694</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.753283</t>
+          <t>2025-08-02T23:13:47.577694</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Members of Indian National Trade Union Congress (INTUC) stage a protest against the alleged rise in prices of medicines, in Kolkata</t>
+          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolkata</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-02T22:46:36.727000</t>
+          <t>2025-08-02T23:09:57.741000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1360,25 +1360,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.778286</t>
+          <t>2025-08-02T23:13:47.590690</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.779279</t>
+          <t>2025-08-02T23:13:47.590690</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Israeli families hold emergency protest after Gaza militants release videos of hostages 7m ago</t>
+          <t>Joint Front to protest over govt's indifference to workers' demands</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-02T22:46:10.180000</t>
+          <t>2025-08-02T23:09:06.825000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1462,20 +1462,20 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.801279</t>
+          <t>2025-08-02T23:13:47.604683</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.802280</t>
+          <t>2025-08-02T23:13:47.605658</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Special air-quality warnings, statements across Canada from Prairies wildfire smoke</t>
+          <t>Canadian wildfire smoke harms U.S. air quality</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-02T22:45:09.117000</t>
+          <t>2025-08-02T23:05:07.088000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1559,20 +1559,20 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.820281</t>
+          <t>2025-08-02T23:13:47.614658</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.820281</t>
+          <t>2025-08-02T23:13:47.615658</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The Law in West Texas Breaks the Law to Protest Weed's Prohibition</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-02T22:45:08.910000</t>
+          <t>2025-08-02T23:05:00.884000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1651,25 +1651,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.840282</t>
+          <t>2025-08-02T23:13:47.630664</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.840282</t>
+          <t>2025-08-02T23:13:47.630664</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DU student dies by suicide after falling victim to cyber fraud</t>
+          <t>Tensions flare as councillors continue protest against Mayor</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-02T22:43:06.793000</t>
+          <t>2025-08-02T23:04:30.742000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1748,40 +1748,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.869282</t>
+          <t>2025-08-02T23:13:47.641658</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Weak classification</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T13" t="b">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.870284</t>
+          <t>2025-08-02T23:13:47.642660</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Russia could threaten Europe by 2030, warns French military chief</t>
+          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-02T22:37:07.123000</t>
+          <t>2025-08-02T23:01:57.639000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1845,40 +1845,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.908282</t>
+          <t>2025-08-02T23:13:47.660660</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Weak classification</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T14" t="b">
@@ -1891,689 +1891,10 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.908282</t>
+          <t>2025-08-02T23:13:47.660660</t>
         </is>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:36:59.841000</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Strike</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.935294</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.936284</t>
-        </is>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>India Tender Notice: Led Flood Light Fitting 1050W, Qty: 50</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:36:34.557000</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.953281</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.953281</t>
-        </is>
-      </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Explosions heard in Kyiv amid ballistic missile attack</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:36:07.156000</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.968285</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T17" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.968285</t>
-        </is>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Watch: 75 years of the Royal Edinburgh Military Tattoo in first preview of 2025 event</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:33:05.923000</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Other/Miscellaneous</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.987281</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="T18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.987281</t>
-        </is>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sydney Harbour Bridge Palestine protest LIVE: Thousands set to march for Gaza</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:32:06.952000</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.004316</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T19" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.005297</t>
-        </is>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:29:09.127000</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Strike</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.018282</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.019285</t>
-        </is>
-      </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Kyiv under Russian missile attack, Ukraine says</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:28:12</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.034281</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.034281</t>
-        </is>
-      </c>
-      <c r="W21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2936,7 +2257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,57 +2385,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>CDS_CDV_SPIKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Sovereign CDS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>China, Japan, South Korea, Australia, India</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-02T22:57:08.602000</t>
+          <t>2025-06-25T12:42:00Z</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Economic Crisis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.646298</t>
+          <t>2025-08-02T23:13:42.198746</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -3123,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3134,7 +2455,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -3151,7 +2472,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.649281</t>
+          <t>2025-08-02T23:13:42.198746</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -3161,66 +2482,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>PROTEST_CLUSTERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>4 cities in 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Civil Unrest</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Brazil, Argentina, Chile, Colombia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-02T22:56:11.013000</t>
+          <t>2025-06-25T13:05:00Z</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.672286</t>
+          <t>2025-08-02T23:13:42.199749</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3231,7 +2552,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -3248,7 +2569,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.672286</t>
+          <t>2025-08-02T23:13:42.199749</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -3258,17 +2579,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>MISSILE_WATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Today's News Headlines: Pro-Palestine protest to close Sydney Harbour Bridge</t>
+          <t>BREAKING: Major missile attack strikes capital city</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3278,17 +2599,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:40.174000</t>
+          <t>2025-07-07T18:00:00Z</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3299,12 +2620,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Strike</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.696291</t>
+          <t>2025-08-02T23:13:42.200748</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -3345,7 +2666,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.697279</t>
+          <t>2025-08-02T23:13:42.200748</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -3365,7 +2686,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3380,12 +2701,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:30.112000</t>
+          <t>2025-08-02T23:12:38.787000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3401,20 +2722,20 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.711303</t>
+          <t>2025-08-02T23:13:47.540662</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3425,7 +2746,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -3442,7 +2763,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.712279</t>
+          <t>2025-08-02T23:13:47.540662</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -3462,7 +2783,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3477,12 +2798,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:08.917000</t>
+          <t>2025-08-02T23:12:37.025000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3498,20 +2819,20 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.722278</t>
+          <t>2025-08-02T23:13:47.555657</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3522,7 +2843,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -3539,7 +2860,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.722278</t>
+          <t>2025-08-02T23:13:47.555657</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -3559,7 +2880,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Teen Swept Into Drain, Dies As Brother, Mother Watch Helplessly During Flash Flood</t>
+          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3574,12 +2895,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-02T22:52:36.908000</t>
+          <t>2025-08-02T23:12:16.970000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3595,20 +2916,20 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.741283</t>
+          <t>2025-08-02T23:13:47.563660</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3619,7 +2940,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -3636,7 +2957,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.742280</t>
+          <t>2025-08-02T23:13:47.563660</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -3656,7 +2977,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kyiv under Russian missile attack, says Ukraine military</t>
+          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3671,12 +2992,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-02T22:47:10.309000</t>
+          <t>2025-08-02T23:11:50.766000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3687,25 +3008,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.753283</t>
+          <t>2025-08-02T23:13:47.577694</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3716,7 +3037,7 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -3733,7 +3054,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.753283</t>
+          <t>2025-08-02T23:13:47.577694</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -3753,7 +3074,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Members of Indian National Trade Union Congress (INTUC) stage a protest against the alleged rise in prices of medicines, in Kolkata</t>
+          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3768,12 +3089,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolkata</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-02T22:46:36.727000</t>
+          <t>2025-08-02T23:09:57.741000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3784,25 +3105,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.778286</t>
+          <t>2025-08-02T23:13:47.590690</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3813,7 +3134,7 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -3830,7 +3151,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.779279</t>
+          <t>2025-08-02T23:13:47.590690</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -3850,7 +3171,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Israeli families hold emergency protest after Gaza militants release videos of hostages 7m ago</t>
+          <t>Joint Front to protest over govt's indifference to workers' demands</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3865,12 +3186,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-02T22:46:10.180000</t>
+          <t>2025-08-02T23:09:06.825000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3886,20 +3207,20 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.801279</t>
+          <t>2025-08-02T23:13:47.604683</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3910,7 +3231,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -3927,7 +3248,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.802280</t>
+          <t>2025-08-02T23:13:47.605658</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -3947,7 +3268,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Special air-quality warnings, statements across Canada from Prairies wildfire smoke</t>
+          <t>Canadian wildfire smoke harms U.S. air quality</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3962,12 +3283,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-02T22:45:09.117000</t>
+          <t>2025-08-02T23:05:07.088000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3983,20 +3304,20 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.820281</t>
+          <t>2025-08-02T23:13:47.614658</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4007,7 +3328,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -4024,7 +3345,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.820281</t>
+          <t>2025-08-02T23:13:47.615658</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -4044,7 +3365,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The Law in West Texas Breaks the Law to Protest Weed's Prohibition</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4064,7 +3385,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-02T22:45:08.910000</t>
+          <t>2025-08-02T23:05:00.884000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4075,25 +3396,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.840282</t>
+          <t>2025-08-02T23:13:47.630664</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4104,7 +3425,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4121,7 +3442,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.840282</t>
+          <t>2025-08-02T23:13:47.630664</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -4141,7 +3462,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DU student dies by suicide after falling victim to cyber fraud</t>
+          <t>Tensions flare as councillors continue protest against Mayor</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4161,7 +3482,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-02T22:43:06.793000</t>
+          <t>2025-08-02T23:04:30.742000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4172,40 +3493,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.869282</t>
+          <t>2025-08-02T23:13:47.641658</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Weak classification</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T13" t="b">
@@ -4218,7 +3539,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.870284</t>
+          <t>2025-08-02T23:13:47.642660</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -4238,7 +3559,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Russia could threaten Europe by 2030, warns French military chief</t>
+          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4253,12 +3574,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-02T22:37:07.123000</t>
+          <t>2025-08-02T23:01:57.639000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4269,40 +3590,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.908282</t>
+          <t>2025-08-02T23:13:47.660660</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Weak classification</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T14" t="b">
@@ -4315,689 +3636,10 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:02.908282</t>
+          <t>2025-08-02T23:13:47.660660</t>
         </is>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:36:59.841000</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Strike</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.935294</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.936284</t>
-        </is>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>India Tender Notice: Led Flood Light Fitting 1050W, Qty: 50</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:36:34.557000</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.953281</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.953281</t>
-        </is>
-      </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Explosions heard in Kyiv amid ballistic missile attack</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:36:07.156000</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.968285</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T17" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.968285</t>
-        </is>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Watch: 75 years of the Royal Edinburgh Military Tattoo in first preview of 2025 event</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:33:05.923000</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Other/Miscellaneous</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.987281</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="T18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:02.987281</t>
-        </is>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sydney Harbour Bridge Palestine protest LIVE: Thousands set to march for Gaza</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:32:06.952000</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.004316</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T19" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.005297</t>
-        </is>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:29:09.127000</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Strike</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.018282</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.019285</t>
-        </is>
-      </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Kyiv under Russian missile attack, Ukraine says</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:28:12</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.034281</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:01:03.034281</t>
-        </is>
-      </c>
-      <c r="W21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -10,6 +10,7 @@
     <sheet name="ImpactMapping_v1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AllSignalsArchive" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ImpactResults_v1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="IndustryEngineInput" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -512,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,66 +641,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-02T23:23:08.050000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.198746</t>
+          <t>2025-08-02T23:23:53.796541</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -710,7 +711,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -727,7 +728,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.198746</t>
+          <t>2025-08-02T23:23:53.796541</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -737,66 +738,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Days of Yore at Heritage Park explores military history from the Viking Age to Second World War</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-02T23:19:10.226000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.199749</t>
+          <t>2025-08-02T23:23:53.815547</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -807,15 +808,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -824,7 +825,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.199749</t>
+          <t>2025-08-02T23:23:53.816538</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -834,17 +835,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>Israel closes majority of military abuse cases without charges: Report</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -854,17 +855,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-02T23:18:39.759000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -875,25 +876,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.200748</t>
+          <t>2025-08-02T23:23:53.829541</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -904,7 +905,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -921,7 +922,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.200748</t>
+          <t>2025-08-02T23:23:53.830545</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -941,7 +942,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
+          <t>Volcano Eruption In Eastern Indonesia Disrupts Bali Flights</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -961,7 +962,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:38.787000</t>
+          <t>2025-08-02T23:17:10.871000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -977,7 +978,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.540662</t>
+          <t>2025-08-02T23:23:53.840544</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1018,7 +1019,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.540662</t>
+          <t>2025-08-02T23:23:53.841544</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1038,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
+          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1053,12 +1054,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:37.025000</t>
+          <t>2025-08-02T23:17:09.107000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1069,25 +1070,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.555657</t>
+          <t>2025-08-02T23:23:53.855547</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1098,15 +1099,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1115,11 +1116,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.555657</t>
+          <t>2025-08-02T23:23:53.856541</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1136,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
+          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:16.970000</t>
+          <t>2025-08-02T23:12:38.787000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1171,7 +1172,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.563660</t>
+          <t>2025-08-02T23:23:53.871549</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1212,7 +1213,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.563660</t>
+          <t>2025-08-02T23:23:53.871549</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1232,7 +1233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1247,12 +1248,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:11:50.766000</t>
+          <t>2025-08-02T23:12:37.025000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,25 +1264,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.577694</t>
+          <t>2025-08-02T23:23:53.889542</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1292,15 +1293,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1309,11 +1310,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.577694</t>
+          <t>2025-08-02T23:23:53.889542</t>
         </is>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1329,7 +1330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
+          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1344,12 +1345,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:57.741000</t>
+          <t>2025-08-02T23:12:16.970000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1365,7 +1366,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.590690</t>
+          <t>2025-08-02T23:23:53.903541</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.590690</t>
+          <t>2025-08-02T23:23:53.903541</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -1426,7 +1427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Joint Front to protest over govt's indifference to workers' demands</t>
+          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1441,12 +1442,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:06.825000</t>
+          <t>2025-08-02T23:11:50.766000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1457,22 +1458,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.604683</t>
+          <t>2025-08-02T23:23:53.915541</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
         <v>7</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>6.7</v>
@@ -1503,7 +1504,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.605658</t>
+          <t>2025-08-02T23:23:53.915541</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1523,7 +1524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Canadian wildfire smoke harms U.S. air quality</t>
+          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1538,12 +1539,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:07.088000</t>
+          <t>2025-08-02T23:09:57.741000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1559,7 +1560,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.614658</t>
+          <t>2025-08-02T23:23:53.932557</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1600,7 +1601,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.615658</t>
+          <t>2025-08-02T23:23:53.932557</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -1620,7 +1621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
+          <t>Joint Front to protest over govt's indifference to workers' demands</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1640,7 +1641,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:00.884000</t>
+          <t>2025-08-02T23:09:06.825000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1651,22 +1652,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.630664</t>
+          <t>2025-08-02T23:23:53.948543</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" t="n">
         <v>6</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>6.7</v>
@@ -1697,7 +1698,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.630664</t>
+          <t>2025-08-02T23:23:53.948543</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1717,7 +1718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tensions flare as councillors continue protest against Mayor</t>
+          <t>Canadian wildfire smoke harms U.S. air quality</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1732,12 +1733,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:04:30.742000</t>
+          <t>2025-08-02T23:05:07.088000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1748,22 +1749,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.641658</t>
+          <t>2025-08-02T23:23:53.958543</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
         <v>7</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
       </c>
       <c r="O13" t="n">
         <v>6.7</v>
@@ -1794,7 +1795,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.642660</t>
+          <t>2025-08-02T23:23:53.958543</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1814,7 +1815,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1834,7 +1835,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:57.639000</t>
+          <t>2025-08-02T23:05:00.884000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1850,7 +1851,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.660660</t>
+          <t>2025-08-02T23:23:53.972558</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1891,11 +1892,690 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.660660</t>
+          <t>2025-08-02T23:23:53.973542</t>
         </is>
       </c>
       <c r="W14" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tensions flare as councillors continue protest against Mayor</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:04:30.742000</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.990541</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.990541</t>
+        </is>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:01:57.639000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Natural Disaster</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.009546</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.009546</t>
+        </is>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:57:08.602000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.018542</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.018542</t>
+        </is>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:56:11.013000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.032546</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.033540</t>
+        </is>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Today's News Headlines: Pro-Palestine protest to close Sydney Harbour Bridge</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:40.174000</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.043541</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.044544</t>
+        </is>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:30.112000</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.057541</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.057541</t>
+        </is>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:08.917000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.069542</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.069542</t>
+        </is>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,66 +3065,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-02T23:23:08.050000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.198746</t>
+          <t>2025-08-02T23:23:53.796541</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2455,7 +3135,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -2472,7 +3152,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.198746</t>
+          <t>2025-08-02T23:23:53.796541</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -2482,66 +3162,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Days of Yore at Heritage Park explores military history from the Viking Age to Second World War</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-02T23:19:10.226000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.199749</t>
+          <t>2025-08-02T23:23:53.815547</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2552,15 +3232,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -2569,7 +3249,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.199749</t>
+          <t>2025-08-02T23:23:53.816538</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -2579,17 +3259,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>Israel closes majority of military abuse cases without charges: Report</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2599,17 +3279,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-02T23:18:39.759000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2620,25 +3300,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.200748</t>
+          <t>2025-08-02T23:23:53.829541</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2649,7 +3329,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -2666,7 +3346,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:42.200748</t>
+          <t>2025-08-02T23:23:53.830545</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -2686,7 +3366,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
+          <t>Volcano Eruption In Eastern Indonesia Disrupts Bali Flights</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2706,7 +3386,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:38.787000</t>
+          <t>2025-08-02T23:17:10.871000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2722,7 +3402,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.540662</t>
+          <t>2025-08-02T23:23:53.840544</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -2763,7 +3443,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.540662</t>
+          <t>2025-08-02T23:23:53.841544</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -2783,7 +3463,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
+          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2798,12 +3478,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:37.025000</t>
+          <t>2025-08-02T23:17:09.107000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2814,25 +3494,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.555657</t>
+          <t>2025-08-02T23:23:53.855547</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2843,15 +3523,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -2860,11 +3540,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.555657</t>
+          <t>2025-08-02T23:23:53.856541</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2880,7 +3560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
+          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2895,12 +3575,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:16.970000</t>
+          <t>2025-08-02T23:12:38.787000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2916,7 +3596,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.563660</t>
+          <t>2025-08-02T23:23:53.871549</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -2957,7 +3637,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.563660</t>
+          <t>2025-08-02T23:23:53.871549</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -2977,7 +3657,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2992,12 +3672,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:11:50.766000</t>
+          <t>2025-08-02T23:12:37.025000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3008,25 +3688,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.577694</t>
+          <t>2025-08-02T23:23:53.889542</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3037,15 +3717,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -3054,11 +3734,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.577694</t>
+          <t>2025-08-02T23:23:53.889542</t>
         </is>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3074,7 +3754,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
+          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3089,12 +3769,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:57.741000</t>
+          <t>2025-08-02T23:12:16.970000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3110,7 +3790,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.590690</t>
+          <t>2025-08-02T23:23:53.903541</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -3151,7 +3831,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.590690</t>
+          <t>2025-08-02T23:23:53.903541</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -3171,7 +3851,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Joint Front to protest over govt's indifference to workers' demands</t>
+          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3186,12 +3866,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:06.825000</t>
+          <t>2025-08-02T23:11:50.766000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3202,22 +3882,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.604683</t>
+          <t>2025-08-02T23:23:53.915541</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
         <v>7</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>6.7</v>
@@ -3248,7 +3928,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.605658</t>
+          <t>2025-08-02T23:23:53.915541</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -3268,7 +3948,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Canadian wildfire smoke harms U.S. air quality</t>
+          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3283,12 +3963,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:07.088000</t>
+          <t>2025-08-02T23:09:57.741000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3304,7 +3984,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.614658</t>
+          <t>2025-08-02T23:23:53.932557</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -3345,7 +4025,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.615658</t>
+          <t>2025-08-02T23:23:53.932557</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -3365,7 +4045,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
+          <t>Joint Front to protest over govt's indifference to workers' demands</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3385,7 +4065,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:00.884000</t>
+          <t>2025-08-02T23:09:06.825000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3396,22 +4076,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.630664</t>
+          <t>2025-08-02T23:23:53.948543</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" t="n">
         <v>6</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>6.7</v>
@@ -3442,7 +4122,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.630664</t>
+          <t>2025-08-02T23:23:53.948543</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -3462,7 +4142,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tensions flare as councillors continue protest against Mayor</t>
+          <t>Canadian wildfire smoke harms U.S. air quality</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3477,12 +4157,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:04:30.742000</t>
+          <t>2025-08-02T23:05:07.088000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3493,22 +4173,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.641658</t>
+          <t>2025-08-02T23:23:53.958543</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
         <v>7</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
       </c>
       <c r="O13" t="n">
         <v>6.7</v>
@@ -3539,7 +4219,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.642660</t>
+          <t>2025-08-02T23:23:53.958543</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -3559,7 +4239,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3579,7 +4259,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:57.639000</t>
+          <t>2025-08-02T23:05:00.884000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3595,7 +4275,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.660660</t>
+          <t>2025-08-02T23:23:53.972558</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -3636,11 +4316,690 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:13:47.660660</t>
+          <t>2025-08-02T23:23:53.973542</t>
         </is>
       </c>
       <c r="W14" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tensions flare as councillors continue protest against Mayor</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:04:30.742000</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.990541</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.990541</t>
+        </is>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:01:57.639000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Natural Disaster</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.009546</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.009546</t>
+        </is>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:57:08.602000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.018542</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.018542</t>
+        </is>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:56:11.013000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.032546</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.033540</t>
+        </is>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Today's News Headlines: Pro-Palestine protest to close Sydney Harbour Bridge</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:40.174000</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.043541</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.044544</t>
+        </is>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:30.112000</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.057541</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.057541</t>
+        </is>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:08.917000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.069542</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.069542</t>
+        </is>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6317,4 +7676,625 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>matcher_name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>raw_value</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>indicator_type</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>region_confidence</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>region_precision_flag</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>classified_event</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>heartbeat</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>credibility_score</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>urgency_score</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>historical_sensitivity_score</t>
+        </is>
+      </c>
+      <c r="O1" s="4" t="inlineStr">
+        <is>
+          <t>base_final_score</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>score_penalty</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="inlineStr">
+        <is>
+          <t>penalty_reason</t>
+        </is>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>final_score</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>confidence_flag</t>
+        </is>
+      </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>forward_to_classifier</t>
+        </is>
+      </c>
+      <c r="U1" s="4" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="V1" s="4" t="inlineStr">
+        <is>
+          <t>last_updated</t>
+        </is>
+      </c>
+      <c r="W1" s="4" t="inlineStr">
+        <is>
+          <t>forward_to_engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:17:09.107000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.855547</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.856541</t>
+        </is>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:12:37.025000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.889542</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:53.889542</t>
+        </is>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:56:11.013000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.032546</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.033540</t>
+        </is>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:30.112000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.057541</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.057541</t>
+        </is>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-08-02T22:55:08.917000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.069542</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-08-02T23:23:54.069542</t>
+        </is>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/signals.xlsx
+++ b/signals.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
+          <t>Sydney Harbour Bridge protest shutdown: What you need to know as pro-Palestine demonstrators disrupt public transport and close down roads</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:08.050000</t>
+          <t>2025-08-02T23:32:05.022000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -682,22 +682,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.796541</t>
+          <t>2025-08-02T23:33:25.748335</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
         <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>6.7</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.796541</t>
+          <t>2025-08-02T23:33:25.748335</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -748,7 +748,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Days of Yore at Heritage Park explores military history from the Viking Age to Second World War</t>
+          <t>Protest or terrorism? Palestine Action wins right to challenge ban in Britain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Britain</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:19:10.226000</t>
+          <t>2025-08-02T23:32:03.939000</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -779,25 +779,25 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.815547</t>
+          <t>2025-08-02T23:33:25.767332</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -808,15 +808,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.816538</t>
+          <t>2025-08-02T23:33:25.767332</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -845,7 +845,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Israel closes majority of military abuse cases without charges: Report</t>
+          <t>Daily M And R Work Such As Electrical Mechanical Gate Operation Etc Allied Works Of Waghur Dam For The Period July 2025 To December 2025 And Providing Required Staff For Gate Operation Flood Controling And Electric Related Maintainance And Repair</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -860,12 +860,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:18:39.759000</t>
+          <t>2025-08-02T23:32:03.777000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -876,25 +876,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.829541</t>
+          <t>2025-08-02T23:33:25.793339</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.830545</t>
+          <t>2025-08-02T23:33:25.793339</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -942,7 +942,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Volcano Eruption In Eastern Indonesia Disrupts Bali Flights</t>
+          <t>Cops huge Harbour Bridge protest warning</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:17:10.871000</t>
+          <t>2025-08-02T23:28:09.318000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -973,22 +973,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.840544</t>
+          <t>2025-08-02T23:33:25.806365</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" t="n">
         <v>6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>6.7</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.841544</t>
+          <t>2025-08-02T23:33:25.807343</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
+          <t>Weekly Highlights: Military Commercial Joint Stock Bank (MBB: VND27,150.0) falls 4.6% on strong volume; -VND1,300 [-4.6%] Vol Index 3.1 [1 is avg]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:17:09.107000</t>
+          <t>2025-08-02T23:26:54.921000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1070,25 +1070,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.855547</t>
+          <t>2025-08-02T23:33:25.838341</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1099,15 +1099,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1116,11 +1116,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.856541</t>
+          <t>2025-08-02T23:33:25.839331</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
+          <t>Weekly Insights: Military Commercial Joint Stock Bank (MBB: VND27,150.0) falls 4.6% on strong volume; -VND1,300 [4.6%] Vol Index 3.1 [1 is avg]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:38.787000</t>
+          <t>2025-08-02T23:26:53.256000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1167,25 +1167,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.871549</t>
+          <t>2025-08-02T23:33:25.865377</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.871549</t>
+          <t>2025-08-02T23:33:25.866339</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
+          <t>Palestine Action protest to go ahead on Sydneys Harbour Bridge</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:37.025000</t>
+          <t>2025-08-02T23:25:26.793000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1264,25 +1264,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.889542</t>
+          <t>2025-08-02T23:33:25.879684</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1293,15 +1293,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1310,11 +1310,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.889542</t>
+          <t>2025-08-02T23:33:25.879684</t>
         </is>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
+          <t>Canadian wildfire smoke triggers air quality alerts in US</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:16.970000</t>
+          <t>2025-08-02T23:24:06.764000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.903541</t>
+          <t>2025-08-02T23:33:25.894694</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.903541</t>
+          <t>2025-08-02T23:33:25.894694</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:11:50.766000</t>
+          <t>2025-08-02T23:23:08.050000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.915541</t>
+          <t>2025-08-02T23:33:25.917692</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.915541</t>
+          <t>2025-08-02T23:33:25.917692</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
+          <t>Days of Yore at Heritage Park explores military history from the Viking Age to Second World War</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:57.741000</t>
+          <t>2025-08-02T23:19:10.226000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1555,25 +1555,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.932557</t>
+          <t>2025-08-02T23:33:25.943696</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1584,15 +1584,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.932557</t>
+          <t>2025-08-02T23:33:25.943696</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Joint Front to protest over govt's indifference to workers' demands</t>
+          <t>Israel closes majority of military abuse cases without charges: Report</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:06.825000</t>
+          <t>2025-08-02T23:18:39.759000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1652,25 +1652,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.948543</t>
+          <t>2025-08-02T23:33:25.963696</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.948543</t>
+          <t>2025-08-02T23:33:25.963696</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Canadian wildfire smoke harms U.S. air quality</t>
+          <t>Volcano Eruption In Eastern Indonesia Disrupts Bali Flights</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:07.088000</t>
+          <t>2025-08-02T23:17:10.871000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.958543</t>
+          <t>2025-08-02T23:33:25.979702</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.958543</t>
+          <t>2025-08-02T23:33:25.979702</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
+          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:00.884000</t>
+          <t>2025-08-02T23:17:09.107000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1846,25 +1846,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.972558</t>
+          <t>2025-08-02T23:33:25.998698</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1875,15 +1875,15 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1892,11 +1892,11 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.973542</t>
+          <t>2025-08-02T23:33:25.999694</t>
         </is>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tensions flare as councillors continue protest against Mayor</t>
+          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-02T23:04:30.742000</t>
+          <t>2025-08-02T23:12:38.787000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.990541</t>
+          <t>2025-08-02T23:33:26.015714</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
         <v>7</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>6.7</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.990541</t>
+          <t>2025-08-02T23:33:26.015714</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:57.639000</t>
+          <t>2025-08-02T23:12:37.025000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2040,25 +2040,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.009546</t>
+          <t>2025-08-02T23:33:26.034692</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2069,15 +2069,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -2086,11 +2086,11 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.009546</t>
+          <t>2025-08-02T23:33:26.034692</t>
         </is>
       </c>
       <c r="W16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
+          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-02T22:57:08.602000</t>
+          <t>2025-08-02T23:12:16.970000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.018542</t>
+          <t>2025-08-02T23:33:26.045709</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -2152,10 +2152,10 @@
         <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.018542</t>
+          <t>2025-08-02T23:33:26.045709</t>
         </is>
       </c>
       <c r="W17" t="b">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-02T22:56:11.013000</t>
+          <t>2025-08-02T23:11:50.766000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2234,25 +2234,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.032546</t>
+          <t>2025-08-02T23:33:26.060694</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2263,15 +2263,15 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.033540</t>
+          <t>2025-08-02T23:33:26.061719</t>
         </is>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Today's News Headlines: Pro-Palestine protest to close Sydney Harbour Bridge</t>
+          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:40.174000</t>
+          <t>2025-08-02T23:09:57.741000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2331,22 +2331,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.043541</t>
+          <t>2025-08-02T23:33:26.074695</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
         <v>7</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>6.7</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.044544</t>
+          <t>2025-08-02T23:33:26.074695</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Joint Front to protest over govt's indifference to workers' demands</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:30.112000</t>
+          <t>2025-08-02T23:09:06.825000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2428,25 +2428,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.057541</t>
+          <t>2025-08-02T23:33:26.089693</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2457,15 +2457,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2474,11 +2474,11 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.057541</t>
+          <t>2025-08-02T23:33:26.089693</t>
         </is>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Canadian wildfire smoke harms U.S. air quality</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:08.917000</t>
+          <t>2025-08-02T23:05:07.088000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2525,25 +2525,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.069542</t>
+          <t>2025-08-02T23:33:26.105715</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2554,15 +2554,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2571,11 +2571,11 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.069542</t>
+          <t>2025-08-02T23:33:26.105715</t>
         </is>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
+          <t>Sydney Harbour Bridge protest shutdown: What you need to know as pro-Palestine demonstrators disrupt public transport and close down roads</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:08.050000</t>
+          <t>2025-08-02T23:32:05.022000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3106,22 +3106,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.796541</t>
+          <t>2025-08-02T23:33:25.748335</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
         <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>6.7</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.796541</t>
+          <t>2025-08-02T23:33:25.748335</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Days of Yore at Heritage Park explores military history from the Viking Age to Second World War</t>
+          <t>Protest or terrorism? Palestine Action wins right to challenge ban in Britain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3187,12 +3187,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Britain</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:19:10.226000</t>
+          <t>2025-08-02T23:32:03.939000</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3203,25 +3203,25 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.815547</t>
+          <t>2025-08-02T23:33:25.767332</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3232,15 +3232,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.816538</t>
+          <t>2025-08-02T23:33:25.767332</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Israel closes majority of military abuse cases without charges: Report</t>
+          <t>Daily M And R Work Such As Electrical Mechanical Gate Operation Etc Allied Works Of Waghur Dam For The Period July 2025 To December 2025 And Providing Required Staff For Gate Operation Flood Controling And Electric Related Maintainance And Repair</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:18:39.759000</t>
+          <t>2025-08-02T23:32:03.777000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3300,25 +3300,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.829541</t>
+          <t>2025-08-02T23:33:25.793339</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.830545</t>
+          <t>2025-08-02T23:33:25.793339</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Volcano Eruption In Eastern Indonesia Disrupts Bali Flights</t>
+          <t>Cops huge Harbour Bridge protest warning</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:17:10.871000</t>
+          <t>2025-08-02T23:28:09.318000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.840544</t>
+          <t>2025-08-02T23:33:25.806365</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" t="n">
         <v>6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>6.7</v>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.841544</t>
+          <t>2025-08-02T23:33:25.807343</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
+          <t>Weekly Highlights: Military Commercial Joint Stock Bank (MBB: VND27,150.0) falls 4.6% on strong volume; -VND1,300 [-4.6%] Vol Index 3.1 [1 is avg]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3478,12 +3478,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:17:09.107000</t>
+          <t>2025-08-02T23:26:54.921000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3494,25 +3494,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.855547</t>
+          <t>2025-08-02T23:33:25.838341</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3523,15 +3523,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -3540,11 +3540,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.856541</t>
+          <t>2025-08-02T23:33:25.839331</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
+          <t>Weekly Insights: Military Commercial Joint Stock Bank (MBB: VND27,150.0) falls 4.6% on strong volume; -VND1,300 [4.6%] Vol Index 3.1 [1 is avg]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:38.787000</t>
+          <t>2025-08-02T23:26:53.256000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3591,25 +3591,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.871549</t>
+          <t>2025-08-02T23:33:25.865377</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.871549</t>
+          <t>2025-08-02T23:33:25.866339</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
+          <t>Palestine Action protest to go ahead on Sydneys Harbour Bridge</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:37.025000</t>
+          <t>2025-08-02T23:25:26.793000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3688,25 +3688,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.889542</t>
+          <t>2025-08-02T23:33:25.879684</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3717,15 +3717,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.889542</t>
+          <t>2025-08-02T23:33:25.879684</t>
         </is>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
+          <t>Canadian wildfire smoke triggers air quality alerts in US</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3769,12 +3769,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:12:16.970000</t>
+          <t>2025-08-02T23:24:06.764000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.903541</t>
+          <t>2025-08-02T23:33:25.894694</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.903541</t>
+          <t>2025-08-02T23:33:25.894694</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
+          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:11:50.766000</t>
+          <t>2025-08-02T23:23:08.050000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.915541</t>
+          <t>2025-08-02T23:33:25.917692</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.915541</t>
+          <t>2025-08-02T23:33:25.917692</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
+          <t>Days of Yore at Heritage Park explores military history from the Viking Age to Second World War</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:57.741000</t>
+          <t>2025-08-02T23:19:10.226000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3979,25 +3979,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.932557</t>
+          <t>2025-08-02T23:33:25.943696</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4008,15 +4008,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.932557</t>
+          <t>2025-08-02T23:33:25.943696</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Joint Front to protest over govt's indifference to workers' demands</t>
+          <t>Israel closes majority of military abuse cases without charges: Report</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:09:06.825000</t>
+          <t>2025-08-02T23:18:39.759000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4076,25 +4076,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.948543</t>
+          <t>2025-08-02T23:33:25.963696</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.948543</t>
+          <t>2025-08-02T23:33:25.963696</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Canadian wildfire smoke harms U.S. air quality</t>
+          <t>Volcano Eruption In Eastern Indonesia Disrupts Bali Flights</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4157,12 +4157,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:07.088000</t>
+          <t>2025-08-02T23:17:10.871000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.958543</t>
+          <t>2025-08-02T23:33:25.979702</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.958543</t>
+          <t>2025-08-02T23:33:25.979702</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Police identify Mount Airy teen who died in flash flood; vigil set for Sunday</t>
+          <t>Ukraine claims attacks on Russian drone storage airbase and military plant</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:05:00.884000</t>
+          <t>2025-08-02T23:17:09.107000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4270,25 +4270,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.972558</t>
+          <t>2025-08-02T23:33:25.998698</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -4299,15 +4299,15 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -4316,11 +4316,11 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.973542</t>
+          <t>2025-08-02T23:33:25.999694</t>
         </is>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tensions flare as councillors continue protest against Mayor</t>
+          <t>Hurricane Gil: this is its trajectory and the states that will be affected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-02T23:04:30.742000</t>
+          <t>2025-08-02T23:12:38.787000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4367,22 +4367,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.990541</t>
+          <t>2025-08-02T23:33:26.015714</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
         <v>7</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>6.7</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.990541</t>
+          <t>2025-08-02T23:33:26.015714</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tender Invited For High Mast Lighting Tower For Large Area With Led Flood Lighting System (q3)##quantity: 47##</t>
+          <t>Inocar warns of dangerous conditions at sea due to waves linked to earthquake in Russia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-02T23:01:57.639000</t>
+          <t>2025-08-02T23:12:37.025000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4464,25 +4464,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.009546</t>
+          <t>2025-08-02T23:33:26.034692</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -4493,15 +4493,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -4510,11 +4510,11 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.009546</t>
+          <t>2025-08-02T23:33:26.034692</t>
         </is>
       </c>
       <c r="W16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Earthquake of magnitude 4.8 strikes Pakistan</t>
+          <t>Earthquake of magnitude 5.9 shook southern Mexico</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4545,12 +4545,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-02T22:57:08.602000</t>
+          <t>2025-08-02T23:12:16.970000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.018542</t>
+          <t>2025-08-02T23:33:26.045709</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -4576,10 +4576,10 @@
         <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.018542</t>
+          <t>2025-08-02T23:33:26.045709</t>
         </is>
       </c>
       <c r="W17" t="b">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Young man suffers head injury due to roof collapse after earthquake in Oaxaca</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4642,12 +4642,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-02T22:56:11.013000</t>
+          <t>2025-08-02T23:11:50.766000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -4658,25 +4658,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.032546</t>
+          <t>2025-08-02T23:33:26.060694</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -4687,15 +4687,15 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -4704,11 +4704,11 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.033540</t>
+          <t>2025-08-02T23:33:26.061719</t>
         </is>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Today's News Headlines: Pro-Palestine protest to close Sydney Harbour Bridge</t>
+          <t>Toronto and GTA under air quality advisory as wildfire smoke rolls into region</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4739,12 +4739,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:40.174000</t>
+          <t>2025-08-02T23:09:57.741000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -4755,22 +4755,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.043541</t>
+          <t>2025-08-02T23:33:26.074695</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
         <v>7</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>6.7</v>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.044544</t>
+          <t>2025-08-02T23:33:26.074695</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Joint Front to protest over govt's indifference to workers' demands</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:30.112000</t>
+          <t>2025-08-02T23:09:06.825000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4852,25 +4852,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.057541</t>
+          <t>2025-08-02T23:33:26.089693</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -4881,15 +4881,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.057541</t>
+          <t>2025-08-02T23:33:26.089693</t>
         </is>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
+          <t>Canadian wildfire smoke harms U.S. air quality</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4933,12 +4933,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-02T22:55:08.917000</t>
+          <t>2025-08-02T23:05:07.088000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4949,25 +4949,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.069542</t>
+          <t>2025-08-02T23:33:26.105715</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -4978,15 +4978,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -4995,11 +4995,11 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:54.069542</t>
+          <t>2025-08-02T23:33:26.105715</t>
         </is>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7684,7 +7684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.855547</t>
+          <t>2025-08-02T23:33:25.998698</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.856541</t>
+          <t>2025-08-02T23:33:25.999694</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.889542</t>
+          <t>2025-08-02T23:33:26.034692</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -7996,301 +7996,10 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T23:23:53.889542</t>
+          <t>2025-08-02T23:33:26.034692</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:56:11.013000</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:23:54.032546</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:23:54.033540</t>
-        </is>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:55:30.112000</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:23:54.057541</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:23:54.057541</t>
-        </is>
-      </c>
-      <c r="W5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Saskatchewan wildfire smokes spreads very high risk air quality warnings</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-08-02T22:55:08.917000</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:23:54.069542</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2025-08-02T23:23:54.069542</t>
-        </is>
-      </c>
-      <c r="W6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,66 +641,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>Newscasts - Timelapse reveals spread of wildfire in California</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>California</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-04T03:32:35.488000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.631938</t>
+          <t>2025-08-04T03:33:58.446586</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.631938</t>
+          <t>2025-08-04T03:33:58.446586</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -738,66 +738,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-04T03:32:07.148000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.632938</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -808,15 +808,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -825,27 +825,27 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.632938</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>The shocking signs and flags at the Harbour Bridge protest - amid warning it could set a new legal precedent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-04T03:32:04.118000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -876,25 +876,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.634935</t>
+          <t>2025-08-04T03:33:58.498595</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.634935</t>
+          <t>2025-08-04T03:33:58.498595</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -942,7 +942,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HTTP/1.1 Flaw Threatens 34% of Websites with 2025 Smuggling Attacks</t>
+          <t>Bhopal: Broken Roads Turn Deadly, Locals Protest With Tape</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:08.653000</t>
+          <t>2025-08-04T03:31:49.326000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -973,25 +973,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.230170</t>
+          <t>2025-08-04T03:33:58.522578</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1002,15 +1002,15 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.231161</t>
+          <t>2025-08-04T03:33:58.522578</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>They were victims of a forgotten war in east Ukraine. Then came Russia's full-scale invasion.</t>
+          <t>Russia's Krasheninnikov volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-03T19:01:29.284000</t>
+          <t>2025-08-04T03:30:15.334000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1070,25 +1070,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.244163</t>
+          <t>2025-08-04T03:33:58.541584</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1099,15 +1099,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1116,11 +1116,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.244163</t>
+          <t>2025-08-04T03:33:58.541584</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Egypt's Military Production Minister, Bulgarian envoy discuss industrial cooperation</t>
+          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-03T18:59:06.642000</t>
+          <t>2025-08-04T03:30:13.753000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1167,25 +1167,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.253160</t>
+          <t>2025-08-04T03:33:58.564592</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.253160</t>
+          <t>2025-08-04T03:33:58.565584</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>What to know about the earthquake that shook the New York area Saturday night</t>
+          <t>Off the cuff: Teachers turn to 'X' for protest</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-03T18:58:07.694000</t>
+          <t>2025-08-04T03:30:09.659000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1264,23 +1264,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.267171</t>
+          <t>2025-08-04T03:33:58.592580</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
         <v>6</v>
       </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
       <c r="O8" t="n">
         <v>6.7</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.267171</t>
+          <t>2025-08-04T03:33:58.592580</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Volcano in Russia erupts for the first time in centuries</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:09.306000</t>
+          <t>2025-08-04T03:29:10.241000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1361,23 +1361,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.282224</t>
+          <t>2025-08-04T03:33:58.621600</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
         <v>6</v>
       </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
       <c r="O9" t="n">
         <v>6.7</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.283173</t>
+          <t>2025-08-04T03:33:58.621600</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Volcano in Russia erupts for first time in centuries following massive quake</t>
+          <t>Candlelight vigil honors Mount Airy teen who died in flash flood</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:08.036000</t>
+          <t>2025-08-04T03:29:08.670000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.296160</t>
+          <t>2025-08-04T03:33:58.633581</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.297162</t>
+          <t>2025-08-04T03:33:58.633581</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A volcano in Russia's Far East erupts for the first time in centuries</t>
+          <t>{"_id":"6890280bd87dc92c4707fba7","slug":"up-flood-situation-in-17-districts-of-the-state-nine-dead-schools-closed-in-many-districts-rain-alert-in-...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:06.070000</t>
+          <t>2025-08-04T03:28:10.832000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.311163</t>
+          <t>2025-08-04T03:33:58.669577</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.311163</t>
+          <t>2025-08-04T03:33:58.669577</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Israeli military intercepts drone from Yemen</t>
+          <t>Minor earthquake occurs on Kyrgyz-Tajik border</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:05.962000</t>
+          <t>2025-08-04T03:26:58.068000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1652,25 +1652,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.322164</t>
+          <t>2025-08-04T03:33:58.692579</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.322164</t>
+          <t>2025-08-04T03:33:58.692579</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>First Time in '600 Years,' Krasheninnikov Volcano in Russia's Kamchatka Erupts</t>
+          <t>August 03, 2025: Bacula Systems SA: How to Choose the Best Enterprise Backup Software in 2025? Best Enterprise Backup Solutions and Tools.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:05.956000</t>
+          <t>2025-08-04T03:26:46.306000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1749,25 +1749,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.339159</t>
+          <t>2025-08-04T03:33:58.720610</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.339159</t>
+          <t>2025-08-04T03:33:58.720610</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pacific earthquake awakens dormant Russian volcano after 500+ years</t>
+          <t>A study in contrasts: Comparing how media outlets covered the Harbour Bridge protest</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-03T18:54:08.212000</t>
+          <t>2025-08-04T03:23:13.006000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1846,23 +1846,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.356161</t>
+          <t>2025-08-04T03:33:58.736583</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
         <v>6</v>
       </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
       <c r="O14" t="n">
         <v>6.7</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.356161</t>
+          <t>2025-08-04T03:33:58.737581</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Raisen Flood News: रायसेन में भीषण बाढ़ से मची तबाही, एक्शन में शिवराज आधिकारियों को दिया ये आदेश!</t>
+          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-03T18:53:09.354000</t>
+          <t>2025-08-04T03:22:40.243000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.379856</t>
+          <t>2025-08-04T03:33:58.763574</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.379856</t>
+          <t>2025-08-04T03:33:58.763574</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Flood submerges Cross River community</t>
+          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-03T18:53:08.340000</t>
+          <t>2025-08-04T03:18:11.164000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.389860</t>
+          <t>2025-08-04T03:33:58.788579</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.389860</t>
+          <t>2025-08-04T03:33:58.788579</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wildfire, smoke forces evacuation of Nisichawayasihk Cree Nation</t>
+          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-03T18:52:07.266000</t>
+          <t>2025-08-04T03:12:09.862000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2137,25 +2137,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.403927</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2166,15 +2166,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.403927</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Evacuations ordered in several areas of Carbondale as new wildfire sparks in western Colorado</t>
+          <t>Thousands of Brazilians protest in support of Jair Bolsonaro and against Lula and De Moraes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-03T18:51:07.476000</t>
+          <t>2025-08-04T03:11:52.068000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2234,23 +2234,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.423858</t>
+          <t>2025-08-04T03:33:58.827577</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
         <v>6</v>
       </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
       <c r="O18" t="n">
         <v>6.7</v>
       </c>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.424873</t>
+          <t>2025-08-04T03:33:58.827577</t>
         </is>
       </c>
       <c r="W18" t="b">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>What to know about the earthquake that shook the New York area Saturday night</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-03T18:51:06.935000</t>
+          <t>2025-08-04T03:09:30.827000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2331,23 +2331,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.434856</t>
+          <t>2025-08-04T03:33:58.843579</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
         <v>6</v>
       </c>
-      <c r="N19" t="n">
-        <v>7</v>
-      </c>
       <c r="O19" t="n">
         <v>6.7</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.434856</t>
+          <t>2025-08-04T03:33:58.843579</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Israeli military intercepts drone from Yemen</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-03T18:50:07.154000</t>
+          <t>2025-08-04T03:07:41.849000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2428,25 +2428,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.449859</t>
+          <t>2025-08-04T03:33:58.862575</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.449859</t>
+          <t>2025-08-04T03:33:58.862575</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Russian missile hits Mykolaiv</t>
+          <t>Plateau group rebuffs MURIC's allegations on Mutfwang's call for military withdrawal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mutfwang</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-03T18:49:06.613000</t>
+          <t>2025-08-04T03:07:12.771000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2525,25 +2525,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.469859</t>
+          <t>2025-08-04T03:33:58.886585</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2554,15 +2554,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2571,301 +2571,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.469859</t>
+          <t>2025-08-04T03:33:58.888576</t>
         </is>
       </c>
       <c r="W21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Thousands join pro-Palestinian protest on Sydney Harbour bridge</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-08-03T18:48:09.078000</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.493856</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>7</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.495898</t>
-        </is>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Volcano in Russia's Far East erupts for first time in centuries</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-08-03T18:47:07.626000</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.508888</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>7</v>
-      </c>
-      <c r="M23" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.508888</t>
-        </is>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Forecasters predict Prairie wildfire smoke could cause hazy skies across Canada</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-08-03T18:45:07.011000</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.532881</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.532881</t>
-        </is>
-      </c>
-      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3228,7 +2937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3356,66 +3065,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>Newscasts - Timelapse reveals spread of wildfire in California</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>California</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-04T03:32:35.488000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.631938</t>
+          <t>2025-08-04T03:33:58.446586</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3426,7 +3135,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -3443,7 +3152,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.631938</t>
+          <t>2025-08-04T03:33:58.446586</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -3453,66 +3162,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-04T03:32:07.148000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.632938</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3523,15 +3232,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -3540,27 +3249,27 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.632938</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>The shocking signs and flags at the Harbour Bridge protest - amid warning it could set a new legal precedent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3570,17 +3279,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-04T03:32:04.118000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3591,25 +3300,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.634935</t>
+          <t>2025-08-04T03:33:58.498595</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3620,7 +3329,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -3637,7 +3346,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:41.634935</t>
+          <t>2025-08-04T03:33:58.498595</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -3657,7 +3366,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HTTP/1.1 Flaw Threatens 34% of Websites with 2025 Smuggling Attacks</t>
+          <t>Bhopal: Broken Roads Turn Deadly, Locals Protest With Tape</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3677,7 +3386,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-03T19:04:08.653000</t>
+          <t>2025-08-04T03:31:49.326000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3688,25 +3397,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.230170</t>
+          <t>2025-08-04T03:33:58.522578</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3717,15 +3426,15 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -3734,7 +3443,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.231161</t>
+          <t>2025-08-04T03:33:58.522578</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -3754,7 +3463,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>They were victims of a forgotten war in east Ukraine. Then came Russia's full-scale invasion.</t>
+          <t>Russia's Krasheninnikov volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3769,12 +3478,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-03T19:01:29.284000</t>
+          <t>2025-08-04T03:30:15.334000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3785,25 +3494,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.244163</t>
+          <t>2025-08-04T03:33:58.541584</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3814,15 +3523,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -3831,11 +3540,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.244163</t>
+          <t>2025-08-04T03:33:58.541584</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3851,7 +3560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Egypt's Military Production Minister, Bulgarian envoy discuss industrial cooperation</t>
+          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3866,12 +3575,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-03T18:59:06.642000</t>
+          <t>2025-08-04T03:30:13.753000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3882,25 +3591,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.253160</t>
+          <t>2025-08-04T03:33:58.564592</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3911,7 +3620,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -3928,7 +3637,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.253160</t>
+          <t>2025-08-04T03:33:58.565584</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -3948,7 +3657,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>What to know about the earthquake that shook the New York area Saturday night</t>
+          <t>Off the cuff: Teachers turn to 'X' for protest</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3963,12 +3672,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-03T18:58:07.694000</t>
+          <t>2025-08-04T03:30:09.659000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3979,23 +3688,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.267171</t>
+          <t>2025-08-04T03:33:58.592580</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
         <v>6</v>
       </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
       <c r="O8" t="n">
         <v>6.7</v>
       </c>
@@ -4025,7 +3734,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.267171</t>
+          <t>2025-08-04T03:33:58.592580</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -4045,7 +3754,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Volcano in Russia erupts for the first time in centuries</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4060,12 +3769,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:09.306000</t>
+          <t>2025-08-04T03:29:10.241000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4076,23 +3785,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.282224</t>
+          <t>2025-08-04T03:33:58.621600</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
         <v>6</v>
       </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
       <c r="O9" t="n">
         <v>6.7</v>
       </c>
@@ -4122,7 +3831,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.283173</t>
+          <t>2025-08-04T03:33:58.621600</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -4142,7 +3851,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Volcano in Russia erupts for first time in centuries following massive quake</t>
+          <t>Candlelight vigil honors Mount Airy teen who died in flash flood</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4157,12 +3866,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:08.036000</t>
+          <t>2025-08-04T03:29:08.670000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4178,7 +3887,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.296160</t>
+          <t>2025-08-04T03:33:58.633581</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -4219,7 +3928,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.297162</t>
+          <t>2025-08-04T03:33:58.633581</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -4239,7 +3948,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A volcano in Russia's Far East erupts for the first time in centuries</t>
+          <t>{"_id":"6890280bd87dc92c4707fba7","slug":"up-flood-situation-in-17-districts-of-the-state-nine-dead-schools-closed-in-many-districts-rain-alert-in-...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4254,12 +3963,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:06.070000</t>
+          <t>2025-08-04T03:28:10.832000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4275,7 +3984,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.311163</t>
+          <t>2025-08-04T03:33:58.669577</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -4316,7 +4025,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.311163</t>
+          <t>2025-08-04T03:33:58.669577</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -4336,7 +4045,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Israeli military intercepts drone from Yemen</t>
+          <t>Minor earthquake occurs on Kyrgyz-Tajik border</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4351,12 +4060,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:05.962000</t>
+          <t>2025-08-04T03:26:58.068000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4367,25 +4076,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.322164</t>
+          <t>2025-08-04T03:33:58.692579</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4396,7 +4105,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4413,7 +4122,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.322164</t>
+          <t>2025-08-04T03:33:58.692579</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -4433,7 +4142,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>First Time in '600 Years,' Krasheninnikov Volcano in Russia's Kamchatka Erupts</t>
+          <t>August 03, 2025: Bacula Systems SA: How to Choose the Best Enterprise Backup Software in 2025? Best Enterprise Backup Solutions and Tools.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4448,12 +4157,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-03T18:57:05.956000</t>
+          <t>2025-08-04T03:26:46.306000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4464,25 +4173,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.339159</t>
+          <t>2025-08-04T03:33:58.720610</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4493,15 +4202,15 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -4510,7 +4219,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.339159</t>
+          <t>2025-08-04T03:33:58.720610</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -4530,7 +4239,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pacific earthquake awakens dormant Russian volcano after 500+ years</t>
+          <t>A study in contrasts: Comparing how media outlets covered the Harbour Bridge protest</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4550,7 +4259,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-03T18:54:08.212000</t>
+          <t>2025-08-04T03:23:13.006000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4561,23 +4270,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.356161</t>
+          <t>2025-08-04T03:33:58.736583</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
         <v>6</v>
       </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
       <c r="O14" t="n">
         <v>6.7</v>
       </c>
@@ -4607,7 +4316,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.356161</t>
+          <t>2025-08-04T03:33:58.737581</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -4627,7 +4336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Raisen Flood News: रायसेन में भीषण बाढ़ से मची तबाही, एक्शन में शिवराज आधिकारियों को दिया ये आदेश!</t>
+          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4647,7 +4356,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-03T18:53:09.354000</t>
+          <t>2025-08-04T03:22:40.243000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4663,7 +4372,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.379856</t>
+          <t>2025-08-04T03:33:58.763574</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -4704,7 +4413,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.379856</t>
+          <t>2025-08-04T03:33:58.763574</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -4724,7 +4433,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Flood submerges Cross River community</t>
+          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4744,7 +4453,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-03T18:53:08.340000</t>
+          <t>2025-08-04T03:18:11.164000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4760,7 +4469,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.389860</t>
+          <t>2025-08-04T03:33:58.788579</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -4801,7 +4510,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.389860</t>
+          <t>2025-08-04T03:33:58.788579</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -4821,7 +4530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wildfire, smoke forces evacuation of Nisichawayasihk Cree Nation</t>
+          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4836,12 +4545,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-03T18:52:07.266000</t>
+          <t>2025-08-04T03:12:09.862000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4852,25 +4561,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.403927</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -4881,15 +4590,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -4898,11 +4607,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.403927</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4918,7 +4627,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Evacuations ordered in several areas of Carbondale as new wildfire sparks in western Colorado</t>
+          <t>Thousands of Brazilians protest in support of Jair Bolsonaro and against Lula and De Moraes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4933,12 +4642,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-03T18:51:07.476000</t>
+          <t>2025-08-04T03:11:52.068000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -4949,23 +4658,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.423858</t>
+          <t>2025-08-04T03:33:58.827577</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
         <v>6</v>
       </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
       <c r="O18" t="n">
         <v>6.7</v>
       </c>
@@ -4995,7 +4704,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.424873</t>
+          <t>2025-08-04T03:33:58.827577</t>
         </is>
       </c>
       <c r="W18" t="b">
@@ -5015,7 +4724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>What to know about the earthquake that shook the New York area Saturday night</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5030,12 +4739,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-03T18:51:06.935000</t>
+          <t>2025-08-04T03:09:30.827000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -5046,23 +4755,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.434856</t>
+          <t>2025-08-04T03:33:58.843579</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
         <v>6</v>
       </c>
-      <c r="N19" t="n">
-        <v>7</v>
-      </c>
       <c r="O19" t="n">
         <v>6.7</v>
       </c>
@@ -5092,7 +4801,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.434856</t>
+          <t>2025-08-04T03:33:58.843579</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -5112,7 +4821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Israeli military intercepts drone from Yemen</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5127,12 +4836,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-03T18:50:07.154000</t>
+          <t>2025-08-04T03:07:41.849000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -5143,25 +4852,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.449859</t>
+          <t>2025-08-04T03:33:58.862575</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -5172,7 +4881,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -5189,7 +4898,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.449859</t>
+          <t>2025-08-04T03:33:58.862575</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -5209,7 +4918,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Russian missile hits Mykolaiv</t>
+          <t>Plateau group rebuffs MURIC's allegations on Mutfwang's call for military withdrawal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5224,12 +4933,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mutfwang</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-03T18:49:06.613000</t>
+          <t>2025-08-04T03:07:12.771000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -5240,25 +4949,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.469859</t>
+          <t>2025-08-04T03:33:58.886585</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -5269,15 +4978,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -5286,301 +4995,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.469859</t>
+          <t>2025-08-04T03:33:58.888576</t>
         </is>
       </c>
       <c r="W21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Thousands join pro-Palestinian protest on Sydney Harbour bridge</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-08-03T18:48:09.078000</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.493856</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>7</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.495898</t>
-        </is>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Volcano in Russia's Far East erupts for first time in centuries</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-08-03T18:47:07.626000</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.508888</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>7</v>
-      </c>
-      <c r="M23" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.508888</t>
-        </is>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Forecasters predict Prairie wildfire smoke could cause hazy skies across Canada</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-08-03T18:45:07.011000</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.532881</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2025-08-03T19:05:03.532881</t>
-        </is>
-      </c>
-      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5595,146 +5013,146 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>matcher_name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>raw_value</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>indicator_type</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>region</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>region_confidence</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>region_precision_flag</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>classified_event</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>heartbeat</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>credibility_score</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>urgency_score</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>historical_sensitivity_score</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>base_final_score</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>score_penalty</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>penalty_reason</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>final_score</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>confidence_flag</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>forward_to_classifier</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>schema_version</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>last_updated</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>forward_to_engine</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>MappedPrimarySectors</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>MappedExampleTickers</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="Z1" s="4" t="inlineStr">
         <is>
           <t>MappedExpectedImpact</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>MappingFound</t>
         </is>
@@ -5743,72 +5161,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>Newscasts - Timelapse reveals spread of wildfire in California</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>California</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-04T03:32:35.488000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.085013</t>
+          <t>2025-08-04T03:33:58.446586</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -5825,7 +5244,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.085013</t>
+          <t>2025-08-04T03:33:58.446586</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -5833,17 +5252,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Financials, Consumer Discretionary, Gold, Bonds (Country: China)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: California)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>XLF, JPM, XLY, GLD, TLT</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Financials negative; Safe-havens bullish</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA2" t="b">
@@ -5853,80 +5272,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-04T03:32:07.148000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.086015</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -5935,25 +5355,25 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.086015</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Energy, Mining, Transportation (Country: Brazil)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Gaza)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
+          <t>Defense bullish; region negative; commodities bullish</t>
         </is>
       </c>
       <c r="AA3" t="b">
@@ -5963,17 +5383,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>The shocking signs and flags at the Harbour Bridge protest - amid warning it could set a new legal precedent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5983,17 +5403,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-04T03:32:04.118000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6004,31 +5424,32 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.087014</t>
+          <t>2025-08-04T03:33:58.498595</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -6045,7 +5466,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.087014</t>
+          <t>2025-08-04T03:33:58.498595</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -6053,17 +5474,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Airlines, Shipping, Manufacturing, Logistics (Country: Iran)</t>
+          <t>Energy, Mining, Transportation (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>DAL, UPS, FDX, CNI, MAERSK</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Negative for affected industries; bullish for competitors if localized</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA4" t="b">
@@ -6078,12 +5499,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The World Reacts to Trump’s Aug. 1 Tariff War</t>
+          <t>Bhopal: Broken Roads Turn Deadly, Locals Protest With Tape</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6103,7 +5524,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-01T21:20:21Z</t>
+          <t>2025-08-04T03:31:49.326000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -6114,40 +5535,36 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.871022</t>
+          <t>2025-08-04T03:33:58.522578</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T5" t="b">
@@ -6160,7 +5577,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.871022</t>
+          <t>2025-08-04T03:33:58.522578</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -6168,17 +5585,17 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Energy, Mining, Transportation (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA5" t="b">
@@ -6193,12 +5610,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dems’ grim outlook for ’26, ‘Palestine’ is a made-up cause and other commentary</t>
+          <t>Russia's Krasheninnikov volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6213,12 +5630,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-01T21:15:03Z</t>
+          <t>2025-08-04T03:30:15.334000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -6229,40 +5646,36 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.895015</t>
+          <t>2025-08-04T03:33:58.541584</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T6" t="b">
@@ -6275,7 +5688,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.895015</t>
+          <t>2025-08-04T03:33:58.541584</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -6283,17 +5696,17 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Palestine)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Russia)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA6" t="b">
@@ -6308,12 +5721,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>How Meghan Markle's Ex-Pal 'Spiraled' After Being 'Dumped' By Diva Duchess Over Racism Scandal — Five Years Before 'Splitting' With Her Husband After 16 Years of Marriage</t>
+          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6328,12 +5741,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-01T21:14:37Z</t>
+          <t>2025-08-04T03:30:13.753000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -6344,40 +5757,36 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.924013</t>
+          <t>2025-08-04T03:33:58.564592</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T7" t="b">
@@ -6390,7 +5799,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.924013</t>
+          <t>2025-08-04T03:33:58.565584</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -6398,17 +5807,17 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Russia)</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA7" t="b">
@@ -6423,12 +5832,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The rise of the machine: Which jobs are safest from AI?</t>
+          <t>Off the cuff: Teachers turn to 'X' for protest</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6443,12 +5852,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-01T21:10:37Z</t>
+          <t>2025-08-04T03:30:09.659000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -6459,40 +5868,36 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.946018</t>
+          <t>2025-08-04T03:33:58.592580</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T8" t="b">
@@ -6505,7 +5910,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.946018</t>
+          <t>2025-08-04T03:33:58.592580</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -6513,17 +5918,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Adaptive (Country: AI)</t>
+          <t>Energy, Mining, Transportation (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA8" t="b">
@@ -6538,12 +5943,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Monaco Face Early Crisis over Ansu Fati's Fitness Before Ligue 1 Kickoff</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6558,12 +5963,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-01T21:06:00Z</t>
+          <t>2025-08-04T03:29:10.241000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -6574,40 +5979,36 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.966011</t>
+          <t>2025-08-04T03:33:58.621600</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T9" t="b">
@@ -6620,7 +6021,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.966011</t>
+          <t>2025-08-04T03:33:58.621600</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -6628,17 +6029,17 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Energy, Mining, Transportation (Country: Gaza)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA9" t="b">
@@ -6653,12 +6054,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The Ongoing Fiction of Cheap Wind and Solar</t>
+          <t>Candlelight vigil honors Mount Airy teen who died in flash flood</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6678,7 +6079,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-01T21:00:00Z</t>
+          <t>2025-08-04T03:29:08.670000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -6689,40 +6090,36 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.984015</t>
+          <t>2025-08-04T03:33:58.633581</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T10" t="b">
@@ -6735,7 +6132,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:33.984015</t>
+          <t>2025-08-04T03:33:58.633581</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -6743,17 +6140,17 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA10" t="b">
@@ -6768,12 +6165,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trump Admin Sets New Illegal Border Crossing Record</t>
+          <t>{"_id":"6890280bd87dc92c4707fba7","slug":"up-flood-situation-in-17-districts-of-the-state-nine-dead-schools-closed-in-many-districts-rain-alert-in-...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6793,7 +6190,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-01T20:59:15Z</t>
+          <t>2025-08-04T03:28:10.832000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -6804,40 +6201,36 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.002019</t>
+          <t>2025-08-04T03:33:58.669577</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T11" t="b">
@@ -6850,7 +6243,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.003069</t>
+          <t>2025-08-04T03:33:58.669577</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -6858,17 +6251,17 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA11" t="b">
@@ -6883,12 +6276,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vacant Chevron Plaza tower in downtown Calgary set to become 332 rental units</t>
+          <t>Minor earthquake occurs on Kyrgyz-Tajik border</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6903,12 +6296,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-01T20:59:03Z</t>
+          <t>2025-08-04T03:26:58.068000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -6919,40 +6312,36 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.026030</t>
+          <t>2025-08-04T03:33:58.692579</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T12" t="b">
@@ -6965,7 +6354,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.027028</t>
+          <t>2025-08-04T03:33:58.692579</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -6973,17 +6362,17 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Calgary)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA12" t="b">
@@ -6998,12 +6387,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Netanyahu postpones decision over military action in Gaza to next week, source says | CNN</t>
+          <t>August 03, 2025: Bacula Systems SA: How to Choose the Best Enterprise Backup Software in 2025? Best Enterprise Backup Solutions and Tools.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7018,12 +6407,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-01T20:45:37Z</t>
+          <t>2025-08-04T03:26:46.306000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -7034,44 +6423,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.056013</t>
+          <t>2025-08-04T03:33:58.720610</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -7080,7 +6465,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.056013</t>
+          <t>2025-08-04T03:33:58.720610</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -7088,17 +6473,17 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Gaza)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Defense bullish; region negative; commodities bullish</t>
         </is>
       </c>
       <c r="AA13" t="b">
@@ -7113,12 +6498,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Everyone’s watching Jerome Powell as warnings flash for the U.S. economy</t>
+          <t>A study in contrasts: Comparing how media outlets covered the Harbour Bridge protest</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7133,12 +6518,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-01T20:45:19Z</t>
+          <t>2025-08-04T03:23:13.006000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -7149,40 +6534,36 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.082023</t>
+          <t>2025-08-04T03:33:58.736583</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T14" t="b">
@@ -7195,7 +6576,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.083018</t>
+          <t>2025-08-04T03:33:58.737581</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -7203,17 +6584,17 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Adaptive (Country: U.S.)</t>
+          <t>Energy, Mining, Transportation (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA14" t="b">
@@ -7228,12 +6609,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>American Eagle responds to Sydney Sweeney ‘great jeans’ ad controversy</t>
+          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7253,7 +6634,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-01T20:43:43Z</t>
+          <t>2025-08-04T03:22:40.243000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -7264,40 +6645,36 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.102016</t>
+          <t>2025-08-04T03:33:58.763574</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T15" t="b">
@@ -7310,7 +6687,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.103027</t>
+          <t>2025-08-04T03:33:58.763574</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -7318,17 +6695,17 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA15" t="b">
@@ -7343,12 +6720,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Boots theory and Wikipedia</t>
+          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -7368,7 +6745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-01T20:30:08Z</t>
+          <t>2025-08-04T03:18:11.164000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -7379,40 +6756,36 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.124021</t>
+          <t>2025-08-04T03:33:58.788579</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T16" t="b">
@@ -7425,7 +6798,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.125016</t>
+          <t>2025-08-04T03:33:58.788579</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -7433,17 +6806,17 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>MMC, EIX, CAT, DE, ADM</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
         </is>
       </c>
       <c r="AA16" t="b">
@@ -7458,12 +6831,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>‘Foundation’ Season 3 Episode 4 Recap: Do Androids Dream of Organic Butts?</t>
+          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7478,12 +6851,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-01T20:30:00Z</t>
+          <t>2025-08-04T03:12:09.862000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -7494,44 +6867,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.144065</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -7540,25 +6909,25 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.145024</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Ukrainian)</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Defense bullish; region negative; commodities bullish</t>
         </is>
       </c>
       <c r="AA17" t="b">
@@ -7573,12 +6942,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Daily Press Briefing by the Office of the Spokesperson for the Secretary-General</t>
+          <t>Thousands of Brazilians protest in support of Jair Bolsonaro and against Lula and De Moraes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7598,7 +6967,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-01T20:28:27Z</t>
+          <t>2025-08-04T03:11:52.068000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -7609,40 +6978,36 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.169015</t>
+          <t>2025-08-04T03:33:58.827577</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T18" t="b">
@@ -7655,7 +7020,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.169015</t>
+          <t>2025-08-04T03:33:58.827577</t>
         </is>
       </c>
       <c r="W18" t="b">
@@ -7663,17 +7028,17 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Energy, Mining, Transportation (Country: Unknown)</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA18" t="b">
@@ -7688,12 +7053,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The Truth About The Employment Numbers: 806,383 Job Cuts Through 7 Months Of 2025 – Up 75 Percent From Last Year!</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7708,12 +7073,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-01T20:26:24Z</t>
+          <t>2025-08-04T03:09:30.827000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -7724,40 +7089,36 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.200014</t>
+          <t>2025-08-04T03:33:58.843579</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T19" t="b">
@@ -7770,7 +7131,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.200014</t>
+          <t>2025-08-04T03:33:58.843579</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -7778,17 +7139,17 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Energy, Mining, Transportation (Country: Gaza)</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA19" t="b">
@@ -7803,12 +7164,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dexter: Resurrection 1x06 promo</t>
+          <t>Premier holds firm on safety after Gaza bridge protest</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7823,12 +7184,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-01T20:26:05Z</t>
+          <t>2025-08-04T03:07:41.849000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -7839,40 +7200,36 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.216023</t>
+          <t>2025-08-04T03:33:58.862575</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T20" t="b">
@@ -7885,7 +7242,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.217038</t>
+          <t>2025-08-04T03:33:58.862575</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -7893,17 +7250,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Energy, Mining, Transportation (Country: Gaza)</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>XLE, OXY, BHP, SFL, TSLA</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
         </is>
       </c>
       <c r="AA20" t="b">
@@ -7918,12 +7275,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NewsAPI</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Who Is Mark Foster? Everything You Need to Know About Julia Garner’s Husband</t>
+          <t>Plateau group rebuffs MURIC's allegations on Mutfwang's call for military withdrawal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7938,12 +7295,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mutfwang</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-01T20:21:00Z</t>
+          <t>2025-08-04T03:07:12.771000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -7954,40 +7311,36 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Other/Miscellaneous</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.238015</t>
+          <t>2025-08-04T03:33:58.886585</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
@@ -8000,7 +7353,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-02T21:23:34.238015</t>
+          <t>2025-08-04T03:33:58.888576</t>
         </is>
       </c>
       <c r="W21" t="b">
@@ -8008,250 +7361,20 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Adaptive (Country: Unknown)</t>
+          <t>Emerging Markets ETFs, Local Banks, Oil &amp; Gas (Country: Mutfwang)</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>EEM, VALE, TOT, PBR</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Context-driven</t>
+          <t>Risk-off: Negative for local markets; possible safe-haven flows</t>
         </is>
       </c>
       <c r="AA21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NewsAPI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>American Eagle doubles down on Sydney Sweeney ‘Great Jeans’ controversy after intense backlash</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-08-01T20:17:29Z</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Other/Miscellaneous</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-08-02T21:23:34.266027</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2025-08-02T21:23:34.267015</t>
-        </is>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Adaptive (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Dynamic</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>Context-driven</t>
-        </is>
-      </c>
-      <c r="AA22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>NewsAPI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>The recognition of Palestine: Western unity is collapsing</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-08-01T20:17:19Z</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Other/Miscellaneous</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-08-02T21:23:34.286053</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Weak classification</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2025-08-02T21:23:34.287026</t>
-        </is>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Adaptive (Country: Palestine)</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Dynamic</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Context-driven</t>
-        </is>
-      </c>
-      <c r="AA23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8266,7 +7389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8404,7 +7527,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>They were victims of a forgotten war in east Ukraine. Then came Russia's full-scale invasion.</t>
+          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8419,12 +7542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:01:29.284000</t>
+          <t>2025-08-04T03:32:07.148000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -8440,7 +7563,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.244163</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -8481,10 +7604,107 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-03T19:05:03.244163</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="W2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ukrainian</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-08-04T03:12:09.862000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-08-04T03:33:58.804577</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-08-04T03:33:58.804577</t>
+        </is>
+      </c>
+      <c r="W3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -5013,7 +5013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Newscasts - Timelapse reveals spread of wildfire in California</t>
+          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5186,12 +5186,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:35.488000</t>
+          <t>2025-08-04T03:32:07.148000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5202,40 +5202,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.446586</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.446586</t>
+          <t>2025-08-04T03:33:58.471599</t>
         </is>
       </c>
       <c r="W2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: California)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Gaza)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
+          <t>Defense bullish; region negative; commodities bullish</t>
         </is>
       </c>
       <c r="AA2" t="b">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
+          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Ukrainian</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:07.148000</t>
+          <t>2025-08-04T03:12:09.862000</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T03:33:58.804577</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Gaza)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Ukrainian)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -5377,2004 +5377,6 @@
         </is>
       </c>
       <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The shocking signs and flags at the Harbour Bridge protest - amid warning it could set a new legal precedent</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:32:04.118000</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.498595</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.498595</t>
-        </is>
-      </c>
-      <c r="W4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bhopal: Broken Roads Turn Deadly, Locals Protest With Tape</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:31:49.326000</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.522578</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.522578</t>
-        </is>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Russia's Krasheninnikov volcano erupts after 600 years, sends ash plume 6 km high</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:30:15.334000</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.541584</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.541584</t>
-        </is>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Russia)</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:30:13.753000</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.564592</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.565584</t>
-        </is>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Russia)</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Off the cuff: Teachers turn to 'X' for protest</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:30:09.659000</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.592580</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.592580</t>
-        </is>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:29:10.241000</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.621600</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.621600</t>
-        </is>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Gaza)</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Candlelight vigil honors Mount Airy teen who died in flash flood</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:29:08.670000</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.633581</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.633581</t>
-        </is>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>{"_id":"6890280bd87dc92c4707fba7","slug":"up-flood-situation-in-17-districts-of-the-state-nine-dead-schools-closed-in-many-districts-rain-alert-in-...</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:28:10.832000</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.669577</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.669577</t>
-        </is>
-      </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Minor earthquake occurs on Kyrgyz-Tajik border</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:26:58.068000</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.692579</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T12" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.692579</t>
-        </is>
-      </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>August 03, 2025: Bacula Systems SA: How to Choose the Best Enterprise Backup Software in 2025? Best Enterprise Backup Solutions and Tools.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:26:46.306000</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.720610</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.720610</t>
-        </is>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Defense bullish; region negative; commodities bullish</t>
-        </is>
-      </c>
-      <c r="AA13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A study in contrasts: Comparing how media outlets covered the Harbour Bridge protest</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:23:13.006000</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.736583</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T14" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.737581</t>
-        </is>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:22:40.243000</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.763574</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.763574</t>
-        </is>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:18:11.164000</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.788579</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>7</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.788579</t>
-        </is>
-      </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Insurance, Utilities, Construction, Agriculture (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>MMC, EIX, CAT, DE, ADM</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Local negative; Construction bullish (rebuild); Insurance exposure negative</t>
-        </is>
-      </c>
-      <c r="AA16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ukrainian</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:12:09.862000</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.804577</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T17" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.804577</t>
-        </is>
-      </c>
-      <c r="W17" t="b">
-        <v>1</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Ukrainian)</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Defense bullish; region negative; commodities bullish</t>
-        </is>
-      </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Thousands of Brazilians protest in support of Jair Bolsonaro and against Lula and De Moraes</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:11:52.068000</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.827577</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.827577</t>
-        </is>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Unknown)</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:09:30.827000</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.843579</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>7</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T19" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.843579</t>
-        </is>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Gaza)</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:07:41.849000</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.862575</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
-      <c r="M20" t="n">
-        <v>7</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.862575</t>
-        </is>
-      </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Energy, Mining, Transportation (Country: Gaza)</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>XLE, OXY, BHP, SFL, TSLA</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Disruptive: Negative for local ops; bullish if supply constrained elsewhere</t>
-        </is>
-      </c>
-      <c r="AA20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Plateau group rebuffs MURIC's allegations on Mutfwang's call for military withdrawal</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Mutfwang</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:07:12.771000</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Coup/Political Unrest</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.886585</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>7</v>
-      </c>
-      <c r="M21" t="n">
-        <v>8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.888576</t>
-        </is>
-      </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Emerging Markets ETFs, Local Banks, Oil &amp; Gas (Country: Mutfwang)</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>EEM, VALE, TOT, PBR</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Risk-off: Negative for local markets; possible safe-haven flows</t>
-        </is>
-      </c>
-      <c r="AA21" t="b">
         <v>1</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,66 +641,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>CDS_CDV_SPIKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Newscasts - Timelapse reveals spread of wildfire in California</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Sovereign CDS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>China, Japan, South Korea, Australia, India</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:35.488000</t>
+          <t>2025-06-25T12:42:00Z</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Economic Crisis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.446586</t>
+          <t>2025-08-04T05:01:25.086455</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.446586</t>
+          <t>2025-08-04T05:01:25.086455</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -738,66 +738,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>PROTEST_CLUSTERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
+          <t>4 cities in 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Civil Unrest</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Brazil, Argentina, Chile, Colombia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:07.148000</t>
+          <t>2025-06-25T13:05:00Z</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:25.088458</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -808,15 +808,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -825,27 +825,27 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:25.088458</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>MISSILE_WATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The shocking signs and flags at the Harbour Bridge protest - amid warning it could set a new legal precedent</t>
+          <t>BREAKING: Major missile attack strikes capital city</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:04.118000</t>
+          <t>2025-07-07T18:00:00Z</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -876,25 +876,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Strike</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.498595</t>
+          <t>2025-08-04T05:01:25.089457</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.498595</t>
+          <t>2025-08-04T05:01:25.089457</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -942,7 +942,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bhopal: Broken Roads Turn Deadly, Locals Protest With Tape</t>
+          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-04T03:31:49.326000</t>
+          <t>2025-08-04T05:00:07.321000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -973,22 +973,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.522578</t>
+          <t>2025-08-04T05:01:30.994590</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>6.7</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.522578</t>
+          <t>2025-08-04T05:01:30.995536</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov volcano erupts after 600 years, sends ash plume 6 km high</t>
+          <t>PM Shehbaz to visit Gilgit today to review rains-caused losses, flood situation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-04T03:30:15.334000</t>
+          <t>2025-08-04T04:59:07.750000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.541584</t>
+          <t>2025-08-04T05:01:31.012521</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.541584</t>
+          <t>2025-08-04T05:01:31.012521</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
+          <t>Suspected Drug Cartels Arrested In Kaduna Military Cantonment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-04T03:30:13.753000</t>
+          <t>2025-08-04T04:55:53.124000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1167,25 +1167,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.564592</t>
+          <t>2025-08-04T05:01:31.030522</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.565584</t>
+          <t>2025-08-04T05:01:31.032521</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Off the cuff: Teachers turn to 'X' for protest</t>
+          <t>Key Highlights Of The Adamawa State Government's Coordinated And Proactive Response To The July 27, 2025, Flood Incident In Parts Of Yola South LGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-04T03:30:09.659000</t>
+          <t>2025-08-04T04:55:52.390000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1264,22 +1264,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.592580</t>
+          <t>2025-08-04T05:01:31.067521</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>6.7</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.592580</t>
+          <t>2025-08-04T05:01:31.068527</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
+          <t>Russia's Krasheninnikov Volcano Erupts For First Time In 600 Years</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-04T03:29:10.241000</t>
+          <t>2025-08-04T04:53:06.623000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1361,22 +1361,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.621600</t>
+          <t>2025-08-04T05:01:31.085525</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>6.7</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.621600</t>
+          <t>2025-08-04T05:01:31.085525</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Candlelight vigil honors Mount Airy teen who died in flash flood</t>
+          <t>Australia boosts Gaza aid after anti-Israel protest</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-04T03:29:08.670000</t>
+          <t>2025-08-04T04:51:13.413000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1458,22 +1458,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.633581</t>
+          <t>2025-08-04T05:01:31.099525</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
         <v>6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>6.7</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.633581</t>
+          <t>2025-08-04T05:01:31.099525</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{"_id":"6890280bd87dc92c4707fba7","slug":"up-flood-situation-in-17-districts-of-the-state-nine-dead-schools-closed-in-many-districts-rain-alert-in-...</t>
+          <t>3 Geological Survey of India officers among 17 rescued after flood in Pangi Valley</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-04T03:28:10.832000</t>
+          <t>2025-08-04T04:51:07.199000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.669577</t>
+          <t>2025-08-04T05:01:31.121522</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.669577</t>
+          <t>2025-08-04T05:01:31.121522</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Minor earthquake occurs on Kyrgyz-Tajik border</t>
+          <t>(EN) ASTRAL LIMITED Full Year (84251046)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-04T03:26:58.068000</t>
+          <t>2025-08-04T04:50:03.540000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1652,25 +1652,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.692579</t>
+          <t>2025-08-04T05:01:31.311520</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.692579</t>
+          <t>2025-08-04T05:01:31.312523</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>August 03, 2025: Bacula Systems SA: How to Choose the Best Enterprise Backup Software in 2025? Best Enterprise Backup Solutions and Tools.</t>
+          <t>Flood damages Bhatauli bridge, cuts off heavy vehicle access to Manthali</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-04T03:26:46.306000</t>
+          <t>2025-08-04T04:49:12.439000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1749,25 +1749,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.720610</t>
+          <t>2025-08-04T05:01:31.358523</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.720610</t>
+          <t>2025-08-04T05:01:31.361542</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A study in contrasts: Comparing how media outlets covered the Harbour Bridge protest</t>
+          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-04T03:23:13.006000</t>
+          <t>2025-08-04T04:49:09.400000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1846,22 +1846,22 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.736583</t>
+          <t>2025-08-04T05:01:31.393525</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>6.7</v>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.737581</t>
+          <t>2025-08-04T05:01:31.394537</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
+          <t>Ebonyi advises residents to relocate to safe grounds as flood wreaks havoc on farmlands worth millions of naira</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>naira</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-04T03:22:40.243000</t>
+          <t>2025-08-04T04:45:12.625000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.763574</t>
+          <t>2025-08-04T05:01:31.435524</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.763574</t>
+          <t>2025-08-04T05:01:31.435524</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
+          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-04T03:18:11.164000</t>
+          <t>2025-08-04T04:44:10.699000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.788579</t>
+          <t>2025-08-04T05:01:31.455523</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.788579</t>
+          <t>2025-08-04T05:01:31.456539</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
+          <t>Military jets scrambled after civilian aircraft breaches no-fly zone near Trump's golf club</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ukrainian</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-04T03:12:09.862000</t>
+          <t>2025-08-04T04:42:30.582000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2137,25 +2137,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.804577</t>
+          <t>2025-08-04T05:01:31.479523</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2166,15 +2166,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.804577</t>
+          <t>2025-08-04T05:01:31.479523</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thousands of Brazilians protest in support of Jair Bolsonaro and against Lula and De Moraes</t>
+          <t>Taiwan boosts military drone orders 16-fold as tensions with China escalate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-04T03:11:52.068000</t>
+          <t>2025-08-04T04:42:09.429000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2234,25 +2234,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.827577</t>
+          <t>2025-08-04T05:01:31.497517</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.827577</t>
+          <t>2025-08-04T05:01:31.498522</t>
         </is>
       </c>
       <c r="W18" t="b">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
+          <t>Military Vehicles With New Identification Marks Were Spotted In Belarus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-04T03:09:30.827000</t>
+          <t>2025-08-04T04:41:31.801000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2331,25 +2331,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.843579</t>
+          <t>2025-08-04T05:01:31.521548</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.843579</t>
+          <t>2025-08-04T05:01:31.523525</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
+          <t>Search to continue for woman swept away in NSW flood waters</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-04T03:07:41.849000</t>
+          <t>2025-08-04T04:40:31.331000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2428,22 +2428,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.862575</t>
+          <t>2025-08-04T05:01:31.546520</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>6.7</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.862575</t>
+          <t>2025-08-04T05:01:31.547520</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Plateau group rebuffs MURIC's allegations on Mutfwang's call for military withdrawal</t>
+          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mutfwang</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-04T03:07:12.771000</t>
+          <t>2025-08-04T04:38:08.076000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2525,25 +2525,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.886585</t>
+          <t>2025-08-04T05:01:31.569526</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N21" t="n">
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2554,27 +2554,318 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.569526</t>
+        </is>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Australia news live: Ley claims Harbour Bridge protest caused chaos; PM chooses first female commissioner of AFP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-08-04T04:37:21.445000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.598517</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" t="inlineStr">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>v1.1</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.888576</t>
-        </is>
-      </c>
-      <c r="W21" t="b">
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.598517</t>
+        </is>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Australian, Israeli politicians react to Sydney Harbour Bridge pro-Palestinian protest</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-08-04T04:36:08.246000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.621539</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.621539</t>
+        </is>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-08-04T04:34:07.698000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Natural Disaster</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.637519</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.637519</t>
+        </is>
+      </c>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2937,7 +3228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3065,66 +3356,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>CDS_CDV_SPIKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Newscasts - Timelapse reveals spread of wildfire in California</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Sovereign CDS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>China, Japan, South Korea, Australia, India</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:35.488000</t>
+          <t>2025-06-25T12:42:00Z</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Economic Crisis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.446586</t>
+          <t>2025-08-04T05:01:25.086455</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3135,7 +3426,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -3152,7 +3443,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.446586</t>
+          <t>2025-08-04T05:01:25.086455</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -3162,66 +3453,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>PROTEST_CLUSTERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
+          <t>4 cities in 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Civil Unrest</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Brazil, Argentina, Chile, Colombia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:07.148000</t>
+          <t>2025-06-25T13:05:00Z</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:25.088458</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3232,15 +3523,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -3249,27 +3540,27 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:25.088458</t>
         </is>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>MISSILE_WATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The shocking signs and flags at the Harbour Bridge protest - amid warning it could set a new legal precedent</t>
+          <t>BREAKING: Major missile attack strikes capital city</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3279,17 +3570,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:04.118000</t>
+          <t>2025-07-07T18:00:00Z</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3300,25 +3591,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Strike</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.498595</t>
+          <t>2025-08-04T05:01:25.089457</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3329,7 +3620,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -3346,7 +3637,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.498595</t>
+          <t>2025-08-04T05:01:25.089457</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -3366,7 +3657,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bhopal: Broken Roads Turn Deadly, Locals Protest With Tape</t>
+          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3381,12 +3672,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-04T03:31:49.326000</t>
+          <t>2025-08-04T05:00:07.321000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3397,22 +3688,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.522578</t>
+          <t>2025-08-04T05:01:30.994590</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>6.7</v>
@@ -3443,7 +3734,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.522578</t>
+          <t>2025-08-04T05:01:30.995536</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -3463,7 +3754,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov volcano erupts after 600 years, sends ash plume 6 km high</t>
+          <t>PM Shehbaz to visit Gilgit today to review rains-caused losses, flood situation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3478,12 +3769,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-04T03:30:15.334000</t>
+          <t>2025-08-04T04:59:07.750000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3499,7 +3790,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.541584</t>
+          <t>2025-08-04T05:01:31.012521</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -3540,7 +3831,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.541584</t>
+          <t>2025-08-04T05:01:31.012521</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -3560,7 +3851,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
+          <t>Suspected Drug Cartels Arrested In Kaduna Military Cantonment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3575,12 +3866,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-04T03:30:13.753000</t>
+          <t>2025-08-04T04:55:53.124000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3591,25 +3882,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.564592</t>
+          <t>2025-08-04T05:01:31.030522</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3620,7 +3911,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -3637,7 +3928,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.565584</t>
+          <t>2025-08-04T05:01:31.032521</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -3657,7 +3948,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Off the cuff: Teachers turn to 'X' for protest</t>
+          <t>Key Highlights Of The Adamawa State Government's Coordinated And Proactive Response To The July 27, 2025, Flood Incident In Parts Of Yola South LGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3677,7 +3968,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-04T03:30:09.659000</t>
+          <t>2025-08-04T04:55:52.390000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3688,22 +3979,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.592580</t>
+          <t>2025-08-04T05:01:31.067521</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>6.7</v>
@@ -3734,7 +4025,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.592580</t>
+          <t>2025-08-04T05:01:31.068527</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -3754,7 +4045,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
+          <t>Russia's Krasheninnikov Volcano Erupts For First Time In 600 Years</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3769,12 +4060,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-04T03:29:10.241000</t>
+          <t>2025-08-04T04:53:06.623000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3785,22 +4076,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.621600</t>
+          <t>2025-08-04T05:01:31.085525</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>6.7</v>
@@ -3831,7 +4122,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.621600</t>
+          <t>2025-08-04T05:01:31.085525</t>
         </is>
       </c>
       <c r="W9" t="b">
@@ -3851,7 +4142,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Candlelight vigil honors Mount Airy teen who died in flash flood</t>
+          <t>Australia boosts Gaza aid after anti-Israel protest</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3866,12 +4157,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-04T03:29:08.670000</t>
+          <t>2025-08-04T04:51:13.413000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3882,22 +4173,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.633581</t>
+          <t>2025-08-04T05:01:31.099525</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
         <v>6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>6.7</v>
@@ -3928,7 +4219,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.633581</t>
+          <t>2025-08-04T05:01:31.099525</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -3948,7 +4239,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{"_id":"6890280bd87dc92c4707fba7","slug":"up-flood-situation-in-17-districts-of-the-state-nine-dead-schools-closed-in-many-districts-rain-alert-in-...</t>
+          <t>3 Geological Survey of India officers among 17 rescued after flood in Pangi Valley</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3963,12 +4254,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-04T03:28:10.832000</t>
+          <t>2025-08-04T04:51:07.199000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3984,7 +4275,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.669577</t>
+          <t>2025-08-04T05:01:31.121522</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -4025,7 +4316,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.669577</t>
+          <t>2025-08-04T05:01:31.121522</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -4045,7 +4336,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Minor earthquake occurs on Kyrgyz-Tajik border</t>
+          <t>(EN) ASTRAL LIMITED Full Year (84251046)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4065,7 +4356,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-04T03:26:58.068000</t>
+          <t>2025-08-04T04:50:03.540000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4076,25 +4367,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.692579</t>
+          <t>2025-08-04T05:01:31.311520</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4105,7 +4396,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4122,7 +4413,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.692579</t>
+          <t>2025-08-04T05:01:31.312523</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -4142,7 +4433,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>August 03, 2025: Bacula Systems SA: How to Choose the Best Enterprise Backup Software in 2025? Best Enterprise Backup Solutions and Tools.</t>
+          <t>Flood damages Bhatauli bridge, cuts off heavy vehicle access to Manthali</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4162,7 +4453,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-04T03:26:46.306000</t>
+          <t>2025-08-04T04:49:12.439000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4173,25 +4464,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.720610</t>
+          <t>2025-08-04T05:01:31.358523</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4202,15 +4493,15 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -4219,7 +4510,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.720610</t>
+          <t>2025-08-04T05:01:31.361542</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -4239,7 +4530,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A study in contrasts: Comparing how media outlets covered the Harbour Bridge protest</t>
+          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4254,12 +4545,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-04T03:23:13.006000</t>
+          <t>2025-08-04T04:49:09.400000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4270,22 +4561,22 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.736583</t>
+          <t>2025-08-04T05:01:31.393525</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>6.7</v>
@@ -4316,7 +4607,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.737581</t>
+          <t>2025-08-04T05:01:31.394537</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -4336,7 +4627,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
+          <t>Ebonyi advises residents to relocate to safe grounds as flood wreaks havoc on farmlands worth millions of naira</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4351,12 +4642,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>naira</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-04T03:22:40.243000</t>
+          <t>2025-08-04T04:45:12.625000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4372,7 +4663,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.763574</t>
+          <t>2025-08-04T05:01:31.435524</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -4413,7 +4704,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.763574</t>
+          <t>2025-08-04T05:01:31.435524</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -4433,7 +4724,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tropical storm Dexter forms in Atlantic, not forecast to hit land, National Hurricane Center says</t>
+          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4448,12 +4739,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-04T03:18:11.164000</t>
+          <t>2025-08-04T04:44:10.699000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4469,7 +4760,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.788579</t>
+          <t>2025-08-04T05:01:31.455523</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -4510,7 +4801,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.788579</t>
+          <t>2025-08-04T05:01:31.456539</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -4530,7 +4821,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
+          <t>Military jets scrambled after civilian aircraft breaches no-fly zone near Trump's golf club</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4545,12 +4836,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ukrainian</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-04T03:12:09.862000</t>
+          <t>2025-08-04T04:42:30.582000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4561,25 +4852,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.804577</t>
+          <t>2025-08-04T05:01:31.479523</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -4590,15 +4881,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -4607,11 +4898,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.804577</t>
+          <t>2025-08-04T05:01:31.479523</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4627,7 +4918,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thousands of Brazilians protest in support of Jair Bolsonaro and against Lula and De Moraes</t>
+          <t>Taiwan boosts military drone orders 16-fold as tensions with China escalate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4642,12 +4933,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-04T03:11:52.068000</t>
+          <t>2025-08-04T04:42:09.429000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -4658,25 +4949,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.827577</t>
+          <t>2025-08-04T05:01:31.497517</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -4687,7 +4978,7 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -4704,7 +4995,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.827577</t>
+          <t>2025-08-04T05:01:31.498522</t>
         </is>
       </c>
       <c r="W18" t="b">
@@ -4724,7 +5015,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
+          <t>Military Vehicles With New Identification Marks Were Spotted In Belarus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4739,12 +5030,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-04T03:09:30.827000</t>
+          <t>2025-08-04T04:41:31.801000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -4755,25 +5046,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.843579</t>
+          <t>2025-08-04T05:01:31.521548</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -4784,7 +5075,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -4801,7 +5092,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.843579</t>
+          <t>2025-08-04T05:01:31.523525</t>
         </is>
       </c>
       <c r="W19" t="b">
@@ -4821,7 +5112,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Premier holds firm on safety after Gaza bridge protest</t>
+          <t>Search to continue for woman swept away in NSW flood waters</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4836,12 +5127,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-04T03:07:41.849000</t>
+          <t>2025-08-04T04:40:31.331000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4852,22 +5143,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.862575</t>
+          <t>2025-08-04T05:01:31.546520</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>6.7</v>
@@ -4898,7 +5189,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.862575</t>
+          <t>2025-08-04T05:01:31.547520</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -4918,7 +5209,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Plateau group rebuffs MURIC's allegations on Mutfwang's call for military withdrawal</t>
+          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4933,12 +5224,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mutfwang</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-04T03:07:12.771000</t>
+          <t>2025-08-04T04:38:08.076000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4949,25 +5240,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.886585</t>
+          <t>2025-08-04T05:01:31.569526</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N21" t="n">
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -4978,27 +5269,318 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.569526</t>
+        </is>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Australia news live: Ley claims Harbour Bridge protest caused chaos; PM chooses first female commissioner of AFP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-08-04T04:37:21.445000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.598517</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" t="inlineStr">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>v1.1</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.888576</t>
-        </is>
-      </c>
-      <c r="W21" t="b">
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.598517</t>
+        </is>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Australian, Israeli politicians react to Sydney Harbour Bridge pro-Palestinian protest</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-08-04T04:36:08.246000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Protest</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.621539</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.621539</t>
+        </is>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-08-04T04:34:07.698000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Natural Disaster</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.637519</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2025-08-04T05:01:31.637519</t>
+        </is>
+      </c>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5013,7 +5595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5753,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
+          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5186,12 +5768,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:07.148000</t>
+          <t>2025-08-04T04:38:08.076000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5207,7 +5789,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:31.569526</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -5244,7 +5826,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:31.569526</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -5252,7 +5834,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Gaza)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Russia)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -5266,117 +5848,6 @@
         </is>
       </c>
       <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ukrainian</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:12:09.862000</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.804577</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.804577</t>
-        </is>
-      </c>
-      <c r="W3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Ukrainian)</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Defense bullish; region negative; commodities bullish</t>
-        </is>
-      </c>
-      <c r="AA3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5391,7 +5862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5529,7 +6000,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aid group says worker killed by Israeli military in attack on Gaza HQ</t>
+          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5544,12 +6015,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:32:07.148000</t>
+          <t>2025-08-04T04:38:08.076000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5565,7 +6036,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:31.569526</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -5606,107 +6077,10 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T03:33:58.471599</t>
+          <t>2025-08-04T05:01:31.569526</t>
         </is>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Corruption uncovered in Ukrainian defense procurement of military equipment</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ukrainian</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:12:09.862000</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Military Escalation</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.804577</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2025-08-04T03:33:58.804577</t>
-        </is>
-      </c>
-      <c r="W3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,66 +641,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>How will Hurricane Erin impact Scotland as category 3 storm threatens UK weather?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-21T01:18:30.527000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.086455</t>
+          <t>2025-08-21T01:19:09.540013</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.086455</t>
+          <t>2025-08-21T01:19:09.540013</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -738,66 +738,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Hurricane Erin mapped: Tracking areas most likely to see the impacts of storm surge and 20-foot waves</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-21T01:18:13.492000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.088458</t>
+          <t>2025-08-21T01:19:09.563004</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.088458</t>
+          <t>2025-08-21T01:19:09.563004</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -835,17 +835,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>August 19, 2025: Governor Hochul Advises New Yorkers on Hurricane Erin's Coastal Threats</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-21T01:17:11.124000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -876,25 +876,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.089457</t>
+          <t>2025-08-21T01:19:09.602028</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.089457</t>
+          <t>2025-08-21T01:19:09.602028</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -942,7 +942,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
+          <t>Canadian military fire crews returning home after helping fight Sask. fires</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-04T05:00:07.321000</t>
+          <t>2025-08-21T01:16:09.823000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -973,25 +973,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:30.994590</t>
+          <t>2025-08-21T01:19:09.623007</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:30.995536</t>
+          <t>2025-08-21T01:19:09.624007</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PM Shehbaz to visit Gilgit today to review rains-caused losses, flood situation</t>
+          <t>India Tender Notice: High Mast Lighting Tower for Large Area with Led Flood Lighting System, Qty: 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-04T04:59:07.750000</t>
+          <t>2025-08-21T01:15:43.020000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.012521</t>
+          <t>2025-08-21T01:19:09.653008</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.012521</t>
+          <t>2025-08-21T01:19:09.653008</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suspected Drug Cartels Arrested In Kaduna Military Cantonment</t>
+          <t>'No public dollars for pipelines': Calgarians protest against government funding of fossil fuels</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-04T04:55:53.124000</t>
+          <t>2025-08-21T01:14:31.539000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1167,25 +1167,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.030522</t>
+          <t>2025-08-21T01:19:09.711004</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.032521</t>
+          <t>2025-08-21T01:19:09.712007</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Key Highlights Of The Adamawa State Government's Coordinated And Proactive Response To The July 27, 2025, Flood Incident In Parts Of Yola South LGA</t>
+          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-04T04:55:52.390000</t>
+          <t>2025-08-21T01:14:02.122000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1264,25 +1264,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.067521</t>
+          <t>2025-08-21T01:19:09.739005</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1293,15 +1293,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1310,11 +1310,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.068527</t>
+          <t>2025-08-21T01:19:09.740005</t>
         </is>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov Volcano Erupts For First Time In 600 Years</t>
+          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-04T04:53:06.623000</t>
+          <t>2025-08-21T01:13:45.497000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1361,25 +1361,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.085525</t>
+          <t>2025-08-21T01:19:09.774010</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1390,15 +1390,15 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.085525</t>
+          <t>2025-08-21T01:19:09.775005</t>
         </is>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Australia boosts Gaza aid after anti-Israel protest</t>
+          <t>Hurricane 'Erin' puts U.S. east coast on alert</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-04T04:51:13.413000</t>
+          <t>2025-08-21T01:13:45.452000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1458,22 +1458,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.099525</t>
+          <t>2025-08-21T01:19:09.794006</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>6.7</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.099525</t>
+          <t>2025-08-21T01:19:09.794006</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3 Geological Survey of India officers among 17 rescued after flood in Pangi Valley</t>
+          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-04T04:51:07.199000</t>
+          <t>2025-08-21T01:13:41.438000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1555,25 +1555,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.121522</t>
+          <t>2025-08-21T01:19:09.811006</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1584,15 +1584,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.121522</t>
+          <t>2025-08-21T01:19:09.811006</t>
         </is>
       </c>
       <c r="W11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(EN) ASTRAL LIMITED Full Year (84251046)</t>
+          <t>Hurricane Erin threatens the U.S. East Coast.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-04T04:50:03.540000</t>
+          <t>2025-08-21T01:13:36.563000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1652,25 +1652,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.311520</t>
+          <t>2025-08-21T01:19:09.823010</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.312523</t>
+          <t>2025-08-21T01:19:09.824016</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Flood damages Bhatauli bridge, cuts off heavy vehicle access to Manthali</t>
+          <t>How powerful is the U.S. military deployment off the coast of Venezuela?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-04T04:49:12.439000</t>
+          <t>2025-08-21T01:13:28.900000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1749,25 +1749,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.358523</t>
+          <t>2025-08-21T01:19:09.836004</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.361542</t>
+          <t>2025-08-21T01:19:09.836004</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
+          <t>Epa Colombia transferred from Buen Pastor to military garrison</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-04T04:49:09.400000</t>
+          <t>2025-08-21T01:13:02.819000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1846,25 +1846,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.393525</t>
+          <t>2025-08-21T01:19:09.847005</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.394537</t>
+          <t>2025-08-21T01:19:09.847005</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ebonyi advises residents to relocate to safe grounds as flood wreaks havoc on farmlands worth millions of naira</t>
+          <t>Remains of missing man found after being swept away by a flood in Antioquia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>naira</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-04T04:45:12.625000</t>
+          <t>2025-08-21T01:12:55.125000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.435524</t>
+          <t>2025-08-21T01:19:09.861004</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.435524</t>
+          <t>2025-08-21T01:19:09.862006</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
+          <t>Burkina Faso military junta declares UN representative persona non grata</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-04T04:44:10.699000</t>
+          <t>2025-08-21T01:12:41.064000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2040,25 +2040,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.455523</t>
+          <t>2025-08-21T01:19:09.874003</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.456539</t>
+          <t>2025-08-21T01:19:09.874003</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Military jets scrambled after civilian aircraft breaches no-fly zone near Trump's golf club</t>
+          <t>Sutil reopens flank in Matthei's campaign for military regime: "For me it is not a dictatorship, because dictatorships perpetuate themselves in pow...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Matthei</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-04T04:42:30.582000</t>
+          <t>2025-08-21T01:12:21.092000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.479523</t>
+          <t>2025-08-21T01:19:09.890004</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.479523</t>
+          <t>2025-08-21T01:19:09.890004</t>
         </is>
       </c>
       <c r="W17" t="b">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Taiwan boosts military drone orders 16-fold as tensions with China escalate</t>
+          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-04T04:42:09.429000</t>
+          <t>2025-08-21T01:12:20.323000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2234,25 +2234,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.497517</t>
+          <t>2025-08-21T01:19:09.898002</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2263,15 +2263,15 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.498522</t>
+          <t>2025-08-21T01:19:09.898002</t>
         </is>
       </c>
       <c r="W18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Military Vehicles With New Identification Marks Were Spotted In Belarus</t>
+          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-04T04:41:31.801000</t>
+          <t>2025-08-21T01:12:13.968000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2331,25 +2331,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.521548</t>
+          <t>2025-08-21T01:19:09.911004</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2377,11 +2377,11 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.523525</t>
+          <t>2025-08-21T01:19:09.911004</t>
         </is>
       </c>
       <c r="W19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Search to continue for woman swept away in NSW flood waters</t>
+          <t>Near-term chances of an eruption at Alaska's Mount Spurr volcano now considered 'extremely low'</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-04T04:40:31.331000</t>
+          <t>2025-08-21T01:12:01.572000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.546520</t>
+          <t>2025-08-21T01:19:09.925007</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.547520</t>
+          <t>2025-08-21T01:19:09.926004</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
+          <t>Hurricane Erin dramatically shifts trajectory after lashing the Caribbean with rain and high winds</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-04T04:38:08.076000</t>
+          <t>2025-08-21T01:12:01.549000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2525,25 +2525,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.939008</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2554,15 +2554,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2571,301 +2571,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.939008</t>
         </is>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Australia news live: Ley claims Harbour Bridge protest caused chaos; PM chooses first female commissioner of AFP</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-08-04T04:37:21.445000</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.598517</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>7</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.598517</t>
-        </is>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Australian, Israeli politicians react to Sydney Harbour Bridge pro-Palestinian protest</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-08-04T04:36:08.246000</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.621539</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>7</v>
-      </c>
-      <c r="M23" t="n">
-        <v>7</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.621539</t>
-        </is>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>U.S.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-08-04T04:34:07.698000</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.637519</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.637519</t>
-        </is>
-      </c>
-      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3228,7 +2937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3356,66 +3065,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDS_CDV_SPIKE</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>How will Hurricane Erin impact Scotland as category 3 storm threatens UK weather?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sovereign CDS</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>China, Japan, South Korea, Australia, India</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-25T12:42:00Z</t>
+          <t>2025-08-21T01:18:30.527000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Economic Crisis</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.086455</t>
+          <t>2025-08-21T01:19:09.540013</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3426,7 +3135,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -3443,7 +3152,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.086455</t>
+          <t>2025-08-21T01:19:09.540013</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -3453,66 +3162,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROTEST_CLUSTERING</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 cities in 48h</t>
+          <t>Hurricane Erin mapped: Tracking areas most likely to see the impacts of storm surge and 20-foot waves</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>News Headline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brazil, Argentina, Chile, Colombia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-25T13:05:00Z</t>
+          <t>2025-08-21T01:18:13.492000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.088458</t>
+          <t>2025-08-21T01:19:09.563004</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3523,7 +3232,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -3540,7 +3249,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.088458</t>
+          <t>2025-08-21T01:19:09.563004</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -3550,17 +3259,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MISSILE_WATCH</t>
+          <t>NEWS_KEYWORD_MATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>LSEG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BREAKING: Major missile attack strikes capital city</t>
+          <t>August 19, 2025: Governor Hochul Advises New Yorkers on Hurricane Erin's Coastal Threats</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3570,17 +3279,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical</t>
+          <t>Geopolitical/Economic/Natural</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07T18:00:00Z</t>
+          <t>2025-08-21T01:17:11.124000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3591,25 +3300,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Strike</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.089457</t>
+          <t>2025-08-21T01:19:09.602028</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3620,7 +3329,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -3637,7 +3346,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:25.089457</t>
+          <t>2025-08-21T01:19:09.602028</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -3657,7 +3366,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
+          <t>Canadian military fire crews returning home after helping fight Sask. fires</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3672,12 +3381,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-04T05:00:07.321000</t>
+          <t>2025-08-21T01:16:09.823000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3688,25 +3397,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:30.994590</t>
+          <t>2025-08-21T01:19:09.623007</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3717,7 +3426,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -3734,7 +3443,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:30.995536</t>
+          <t>2025-08-21T01:19:09.624007</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -3754,7 +3463,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PM Shehbaz to visit Gilgit today to review rains-caused losses, flood situation</t>
+          <t>India Tender Notice: High Mast Lighting Tower for Large Area with Led Flood Lighting System, Qty: 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3769,12 +3478,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-04T04:59:07.750000</t>
+          <t>2025-08-21T01:15:43.020000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3790,7 +3499,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.012521</t>
+          <t>2025-08-21T01:19:09.653008</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -3831,7 +3540,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.012521</t>
+          <t>2025-08-21T01:19:09.653008</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -3851,7 +3560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suspected Drug Cartels Arrested In Kaduna Military Cantonment</t>
+          <t>'No public dollars for pipelines': Calgarians protest against government funding of fossil fuels</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3871,7 +3580,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-04T04:55:53.124000</t>
+          <t>2025-08-21T01:14:31.539000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3882,25 +3591,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.030522</t>
+          <t>2025-08-21T01:19:09.711004</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3911,7 +3620,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -3928,7 +3637,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.032521</t>
+          <t>2025-08-21T01:19:09.712007</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -3948,7 +3657,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Key Highlights Of The Adamawa State Government's Coordinated And Proactive Response To The July 27, 2025, Flood Incident In Parts Of Yola South LGA</t>
+          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3963,12 +3672,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-04T04:55:52.390000</t>
+          <t>2025-08-21T01:14:02.122000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3979,25 +3688,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.067521</t>
+          <t>2025-08-21T01:19:09.739005</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -4008,15 +3717,15 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -4025,11 +3734,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.068527</t>
+          <t>2025-08-21T01:19:09.740005</t>
         </is>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4045,7 +3754,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov Volcano Erupts For First Time In 600 Years</t>
+          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4060,12 +3769,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-04T04:53:06.623000</t>
+          <t>2025-08-21T01:13:45.497000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4076,25 +3785,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.085525</t>
+          <t>2025-08-21T01:19:09.774010</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -4105,15 +3814,15 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -4122,11 +3831,11 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.085525</t>
+          <t>2025-08-21T01:19:09.775005</t>
         </is>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -4142,7 +3851,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Australia boosts Gaza aid after anti-Israel protest</t>
+          <t>Hurricane 'Erin' puts U.S. east coast on alert</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4157,12 +3866,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-04T04:51:13.413000</t>
+          <t>2025-08-21T01:13:45.452000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4173,22 +3882,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.099525</t>
+          <t>2025-08-21T01:19:09.794006</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>6.7</v>
@@ -4219,7 +3928,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.099525</t>
+          <t>2025-08-21T01:19:09.794006</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -4239,7 +3948,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3 Geological Survey of India officers among 17 rescued after flood in Pangi Valley</t>
+          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4254,12 +3963,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-04T04:51:07.199000</t>
+          <t>2025-08-21T01:13:41.438000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4270,25 +3979,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.121522</t>
+          <t>2025-08-21T01:19:09.811006</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4299,15 +4008,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -4316,11 +4025,11 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.121522</t>
+          <t>2025-08-21T01:19:09.811006</t>
         </is>
       </c>
       <c r="W11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4336,7 +4045,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(EN) ASTRAL LIMITED Full Year (84251046)</t>
+          <t>Hurricane Erin threatens the U.S. East Coast.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4356,7 +4065,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-04T04:50:03.540000</t>
+          <t>2025-08-21T01:13:36.563000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4367,25 +4076,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.311520</t>
+          <t>2025-08-21T01:19:09.823010</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4396,7 +4105,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4413,7 +4122,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.312523</t>
+          <t>2025-08-21T01:19:09.824016</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -4433,7 +4142,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Flood damages Bhatauli bridge, cuts off heavy vehicle access to Manthali</t>
+          <t>How powerful is the U.S. military deployment off the coast of Venezuela?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4448,12 +4157,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-04T04:49:12.439000</t>
+          <t>2025-08-21T01:13:28.900000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4464,25 +4173,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.358523</t>
+          <t>2025-08-21T01:19:09.836004</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4493,7 +4202,7 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -4510,7 +4219,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.361542</t>
+          <t>2025-08-21T01:19:09.836004</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -4530,7 +4239,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
+          <t>Epa Colombia transferred from Buen Pastor to military garrison</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4545,12 +4254,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-04T04:49:09.400000</t>
+          <t>2025-08-21T01:13:02.819000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4561,25 +4270,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.393525</t>
+          <t>2025-08-21T01:19:09.847005</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -4590,7 +4299,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -4607,7 +4316,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.394537</t>
+          <t>2025-08-21T01:19:09.847005</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -4627,7 +4336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ebonyi advises residents to relocate to safe grounds as flood wreaks havoc on farmlands worth millions of naira</t>
+          <t>Remains of missing man found after being swept away by a flood in Antioquia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4642,12 +4351,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>naira</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-04T04:45:12.625000</t>
+          <t>2025-08-21T01:12:55.125000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4663,7 +4372,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.435524</t>
+          <t>2025-08-21T01:19:09.861004</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -4704,7 +4413,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.435524</t>
+          <t>2025-08-21T01:19:09.862006</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -4724,7 +4433,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Russia's Krasheninnikov Volcano erupts after 600 years, sends ash plume 6 km high</t>
+          <t>Burkina Faso military junta declares UN representative persona non grata</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4739,12 +4448,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-04T04:44:10.699000</t>
+          <t>2025-08-21T01:12:41.064000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4755,25 +4464,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.455523</t>
+          <t>2025-08-21T01:19:09.874003</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -4784,7 +4493,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -4801,7 +4510,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.456539</t>
+          <t>2025-08-21T01:19:09.874003</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -4821,7 +4530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Military jets scrambled after civilian aircraft breaches no-fly zone near Trump's golf club</t>
+          <t>Sutil reopens flank in Matthei's campaign for military regime: "For me it is not a dictatorship, because dictatorships perpetuate themselves in pow...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4836,12 +4545,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Matthei</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-04T04:42:30.582000</t>
+          <t>2025-08-21T01:12:21.092000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4857,7 +4566,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.479523</t>
+          <t>2025-08-21T01:19:09.890004</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -4898,7 +4607,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.479523</t>
+          <t>2025-08-21T01:19:09.890004</t>
         </is>
       </c>
       <c r="W17" t="b">
@@ -4918,7 +4627,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Taiwan boosts military drone orders 16-fold as tensions with China escalate</t>
+          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4933,12 +4642,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-04T04:42:09.429000</t>
+          <t>2025-08-21T01:12:20.323000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -4949,25 +4658,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.497517</t>
+          <t>2025-08-21T01:19:09.898002</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -4978,15 +4687,15 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -4995,11 +4704,11 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.498522</t>
+          <t>2025-08-21T01:19:09.898002</t>
         </is>
       </c>
       <c r="W18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5015,7 +4724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Military Vehicles With New Identification Marks Were Spotted In Belarus</t>
+          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5030,12 +4739,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-04T04:41:31.801000</t>
+          <t>2025-08-21T01:12:13.968000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -5046,25 +4755,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.521548</t>
+          <t>2025-08-21T01:19:09.911004</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -5075,15 +4784,15 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -5092,11 +4801,11 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.523525</t>
+          <t>2025-08-21T01:19:09.911004</t>
         </is>
       </c>
       <c r="W19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5112,7 +4821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Search to continue for woman swept away in NSW flood waters</t>
+          <t>Near-term chances of an eruption at Alaska's Mount Spurr volcano now considered 'extremely low'</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5127,12 +4836,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-04T04:40:31.331000</t>
+          <t>2025-08-21T01:12:01.572000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -5148,7 +4857,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.546520</t>
+          <t>2025-08-21T01:19:09.925007</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -5189,7 +4898,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.547520</t>
+          <t>2025-08-21T01:19:09.926004</t>
         </is>
       </c>
       <c r="W20" t="b">
@@ -5209,7 +4918,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
+          <t>Hurricane Erin dramatically shifts trajectory after lashing the Caribbean with rain and high winds</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5224,12 +4933,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-04T04:38:08.076000</t>
+          <t>2025-08-21T01:12:01.549000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -5240,25 +4949,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.939008</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -5269,15 +4978,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -5286,301 +4995,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.939008</t>
         </is>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Australia news live: Ley claims Harbour Bridge protest caused chaos; PM chooses first female commissioner of AFP</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-08-04T04:37:21.445000</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.598517</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>7</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.598517</t>
-        </is>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Australian, Israeli politicians react to Sydney Harbour Bridge pro-Palestinian protest</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-08-04T04:36:08.246000</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Protest</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.621539</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>7</v>
-      </c>
-      <c r="M23" t="n">
-        <v>7</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.621539</t>
-        </is>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NEWS_KEYWORD_MATCH</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LSEG</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Wildfire continues to rage across U.S. Grand Canyon National Park</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>News Headline</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Geopolitical/Economic/Natural</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>U.S.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-08-04T04:34:07.698000</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Natural Disaster</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.637519</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>v1.1</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2025-08-04T05:01:31.637519</t>
-        </is>
-      </c>
-      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +5013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5753,7 +5171,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
+          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5768,12 +5186,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T04:38:08.076000</t>
+          <t>2025-08-21T01:14:02.122000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5789,7 +5207,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.739005</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -5826,7 +5244,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.740005</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -5834,7 +5252,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Russia)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: U.S.)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -5848,6 +5266,450 @@
         </is>
       </c>
       <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:13:45.497000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.774010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.775005</t>
+        </is>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Pakistan)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Defense bullish; region negative; commodities bullish</t>
+        </is>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:13:41.438000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.811006</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.811006</t>
+        </is>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Netherlands)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Defense bullish; region negative; commodities bullish</t>
+        </is>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:12:20.323000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.898002</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.898002</t>
+        </is>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: U.S.)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Defense bullish; region negative; commodities bullish</t>
+        </is>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:12:13.968000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.911004</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.911004</t>
+        </is>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Israel)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Defense bullish; region negative; commodities bullish</t>
+        </is>
+      </c>
+      <c r="AA6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5862,7 +5724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6000,7 +5862,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Russia cancels tsunami warning for Kamchatka after quake, dormant volcano erupts</t>
+          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6015,12 +5877,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-04T04:38:08.076000</t>
+          <t>2025-08-21T01:14:02.122000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -6036,7 +5898,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.739005</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -6077,10 +5939,398 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-04T05:01:31.569526</t>
+          <t>2025-08-21T01:19:09.740005</t>
         </is>
       </c>
       <c r="W2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:13:45.497000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.774010</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.775005</t>
+        </is>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:13:41.438000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.811006</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.811006</t>
+        </is>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:12:20.323000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.898002</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.898002</t>
+        </is>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:12:13.968000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.911004</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-08-21T01:19:09.911004</t>
+        </is>
+      </c>
+      <c r="W6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,78 +641,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>CDS_CDV_SPIKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>How will Hurricane Erin impact Scotland as category 3 storm threatens UK weather?</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Sovereign CDS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>China, Japan, South Korea, Australia, India</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:18:30.527000</t>
+          <t>2025-06-25T12:42:00Z</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Economic Crisis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.540013</t>
+          <t>2025-08-21T04:36:36.596305</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
         <v>7</v>
       </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>6.7</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -728,7 +728,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.540013</t>
+          <t>2025-08-21T04:36:36.597295</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -738,66 +738,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>PROTEST_CLUSTERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hurricane Erin mapped: Tracking areas most likely to see the impacts of storm surge and 20-foot waves</t>
+          <t>4 cities in 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Civil Unrest</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Brazil, Argentina, Chile, Colombia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:18:13.492000</t>
+          <t>2025-06-25T13:05:00Z</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.563004</t>
+          <t>2025-08-21T04:36:36.597295</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
         <v>6</v>
       </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
       <c r="O3" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.563004</t>
+          <t>2025-08-21T04:36:36.598300</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -835,17 +835,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>MISSILE_WATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>August 19, 2025: Governor Hochul Advises New Yorkers on Hurricane Erin's Coastal Threats</t>
+          <t>BREAKING: Major missile attack strikes capital city</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:17:11.124000</t>
+          <t>2025-07-07T18:00:00Z</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -876,25 +876,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Strike</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.602028</t>
+          <t>2025-08-21T04:36:36.598300</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.602028</t>
+          <t>2025-08-21T04:36:36.599310</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -942,7 +942,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Canadian military fire crews returning home after helping fight Sask. fires</t>
+          <t>Hurricane Erin Causes NYC Beach Closures</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:16:09.823000</t>
+          <t>2025-08-21T04:36:12.658000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -973,25 +973,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.623007</t>
+          <t>2025-08-21T04:36:42.222633</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.624007</t>
+          <t>2025-08-21T04:36:42.222633</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>India Tender Notice: High Mast Lighting Tower for Large Area with Led Flood Lighting System, Qty: 1</t>
+          <t>N. Korea likely has covert missile base near China border: US think tank</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:15:43.020000</t>
+          <t>2025-08-21T04:36:09.463000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1070,25 +1070,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.653008</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1099,15 +1099,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1116,11 +1116,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.653008</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'No public dollars for pipelines': Calgarians protest against government funding of fossil fuels</t>
+          <t>India tests nuclear capable missile a week ahead of Modi's visit to China</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-21T01:14:31.539000</t>
+          <t>2025-08-21T04:35:10.190000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1167,25 +1167,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.711004</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1196,15 +1196,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1213,11 +1213,11 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.712007</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
+          <t>Netherlands sending 300 troops, Patriot missile systems to Poland</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-21T01:14:02.122000</t>
+          <t>2025-08-21T04:32:09.196000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.739005</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.740005</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
+          <t>GAA players protest over Allianz sponsorship</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:45.497000</t>
+          <t>2025-08-21T04:27:37.747000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1361,25 +1361,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.774010</t>
+          <t>2025-08-21T04:36:42.272599</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1390,15 +1390,15 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.775005</t>
+          <t>2025-08-21T04:36:42.272599</t>
         </is>
       </c>
       <c r="W9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hurricane 'Erin' puts U.S. east coast on alert</t>
+          <t>The greatest gamble in military history… and why it backfired</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:45.452000</t>
+          <t>2025-08-21T04:26:27.123000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1458,25 +1458,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.794006</t>
+          <t>2025-08-21T04:36:42.290598</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.794006</t>
+          <t>2025-08-21T04:36:42.290598</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
+          <t>Hurricane Erin: Met Office details 'unsettled and windy' weather as storms loom</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:41.438000</t>
+          <t>2025-08-21T04:26:07.124000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1555,25 +1555,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.304594</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1584,15 +1584,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.305597</t>
         </is>
       </c>
       <c r="W11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hurricane Erin threatens the U.S. East Coast.</t>
+          <t>OPINION: Yet Another Example of Cultural Vandalism by Thai Military Forces</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:36.563000</t>
+          <t>2025-08-21T04:25:08.606000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1652,25 +1652,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.823010</t>
+          <t>2025-08-21T04:36:42.321595</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.824016</t>
+          <t>2025-08-21T04:36:42.321595</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>How powerful is the U.S. military deployment off the coast of Venezuela?</t>
+          <t>Mukachevo recovers from Russian missile attack, authorities warn residents to close windows</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:28.900000</t>
+          <t>2025-08-21T04:24:14.403000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1749,25 +1749,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.836004</t>
+          <t>2025-08-21T04:36:42.340597</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1778,15 +1778,15 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.836004</t>
+          <t>2025-08-21T04:36:42.340597</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Epa Colombia transferred from Buen Pastor to military garrison</t>
+          <t>Microsoft grapples with arrests, protests over Israeli military's use of its tech</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:02.819000</t>
+          <t>2025-08-21T04:24:07.806000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1846,25 +1846,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.847005</t>
+          <t>2025-08-21T04:36:42.355598</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.847005</t>
+          <t>2025-08-21T04:36:42.355598</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Remains of missing man found after being swept away by a flood in Antioquia</t>
+          <t>India tests ballistic missile</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:55.125000</t>
+          <t>2025-08-21T04:23:54.214000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1943,25 +1943,25 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.861004</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1972,15 +1972,15 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1989,11 +1989,11 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.862006</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="W15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Burkina Faso military junta declares UN representative persona non grata</t>
+          <t>Mexico's Sheinbaum rejects US military deployment near Venezuela</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:41.064000</t>
+          <t>2025-08-21T04:23:47.386000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.874003</t>
+          <t>2025-08-21T04:36:42.380601</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.874003</t>
+          <t>2025-08-21T04:36:42.380601</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sutil reopens flank in Matthei's campaign for military regime: "For me it is not a dictatorship, because dictatorships perpetuate themselves in pow...</t>
+          <t>Experts warn Bangladesh's financial sector at high risk from cyber threats</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Matthei</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:21.092000</t>
+          <t>2025-08-21T04:23:38.413000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2137,25 +2137,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.890004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2166,15 +2166,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.890004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
+          <t>US Navy sailor convicted of espionage for sharing sensitive military information with China</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:20.323000</t>
+          <t>2025-08-21T04:23:33.275000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2234,25 +2234,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.420637</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2263,15 +2263,15 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.420637</t>
         </is>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
+          <t>US seizes $700mn in Maduro assets as military presence rises in Caribbean</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:13.968000</t>
+          <t>2025-08-21T04:23:29.655000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2331,25 +2331,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.431603</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2377,11 +2377,11 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.432599</t>
         </is>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Near-term chances of an eruption at Alaska's Mount Spurr volcano now considered 'extremely low'</t>
+          <t>China's military prepares to unveil its latest weapons in parade celebrating end of World War II</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alaska</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:01.572000</t>
+          <t>2025-08-21T04:23:29.121000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2428,25 +2428,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.925007</t>
+          <t>2025-08-21T04:36:42.448599</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2457,15 +2457,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2474,11 +2474,11 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.926004</t>
+          <t>2025-08-21T04:36:42.449599</t>
         </is>
       </c>
       <c r="W20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hurricane Erin dramatically shifts trajectory after lashing the Caribbean with rain and high winds</t>
+          <t>5.4-magnitude quake in Myanmar felt in Bangkok, says earthquake dept</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:01.549000</t>
+          <t>2025-08-21T04:23:09.131000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.939008</t>
+          <t>2025-08-21T04:36:42.459598</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2571,10 +2571,301 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.939008</t>
+          <t>2025-08-21T04:36:42.459598</t>
         </is>
       </c>
       <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Israeli military says first stages of assault on Gaza City have begun</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gaza City</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:22:13.508000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Coup/Political Unrest</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.475597</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.475597</t>
+        </is>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Couple assaulted, robbed during home invasion in Princes Town</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:22:11.143000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Coup/Political Unrest</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.488599</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.488599</t>
+        </is>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Israel moviliza reservistas y prepara invasión en Ciudad de Gaza</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:21:26.060000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Coup/Political Unrest</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.500630</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.500630</t>
+        </is>
+      </c>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2937,7 +3228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3065,78 +3356,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>CDS_CDV_SPIKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>How will Hurricane Erin impact Scotland as category 3 storm threatens UK weather?</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Sovereign CDS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>China, Japan, South Korea, Australia, India</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:18:30.527000</t>
+          <t>2025-06-25T12:42:00Z</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Economic Crisis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.540013</t>
+          <t>2025-08-21T04:36:36.596305</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
         <v>7</v>
       </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>6.7</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3152,7 +3443,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.540013</t>
+          <t>2025-08-21T04:36:36.597295</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -3162,66 +3453,66 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>PROTEST_CLUSTERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hurricane Erin mapped: Tracking areas most likely to see the impacts of storm surge and 20-foot waves</t>
+          <t>4 cities in 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>News Headline</t>
+          <t>Civil Unrest</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Brazil, Argentina, Chile, Colombia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:18:13.492000</t>
+          <t>2025-06-25T13:05:00Z</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.563004</t>
+          <t>2025-08-21T04:36:36.597295</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
         <v>6</v>
       </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
       <c r="O3" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3232,7 +3523,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -3249,7 +3540,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.563004</t>
+          <t>2025-08-21T04:36:36.598300</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -3259,17 +3550,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NEWS_KEYWORD_MATCH</t>
+          <t>MISSILE_WATCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSEG</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>August 19, 2025: Governor Hochul Advises New Yorkers on Hurricane Erin's Coastal Threats</t>
+          <t>BREAKING: Major missile attack strikes capital city</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3279,17 +3570,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Geopolitical/Economic/Natural</t>
+          <t>Geopolitical</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:17:11.124000</t>
+          <t>2025-07-07T18:00:00Z</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3300,25 +3591,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Strike</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.602028</t>
+          <t>2025-08-21T04:36:36.598300</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3329,7 +3620,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -3346,7 +3637,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.602028</t>
+          <t>2025-08-21T04:36:36.599310</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -3366,7 +3657,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Canadian military fire crews returning home after helping fight Sask. fires</t>
+          <t>Hurricane Erin Causes NYC Beach Closures</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3386,7 +3677,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:16:09.823000</t>
+          <t>2025-08-21T04:36:12.658000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3397,25 +3688,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.623007</t>
+          <t>2025-08-21T04:36:42.222633</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3426,7 +3717,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -3443,7 +3734,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.624007</t>
+          <t>2025-08-21T04:36:42.222633</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -3463,7 +3754,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>India Tender Notice: High Mast Lighting Tower for Large Area with Led Flood Lighting System, Qty: 1</t>
+          <t>N. Korea likely has covert missile base near China border: US think tank</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3478,12 +3769,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:15:43.020000</t>
+          <t>2025-08-21T04:36:09.463000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3494,25 +3785,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.653008</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3523,15 +3814,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -3540,11 +3831,11 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.653008</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="W6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3560,7 +3851,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'No public dollars for pipelines': Calgarians protest against government funding of fossil fuels</t>
+          <t>India tests nuclear capable missile a week ahead of Modi's visit to China</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3575,12 +3866,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-21T01:14:31.539000</t>
+          <t>2025-08-21T04:35:10.190000</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3591,25 +3882,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Protest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.711004</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3620,15 +3911,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -3637,11 +3928,11 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.712007</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3657,7 +3948,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
+          <t>Netherlands sending 300 troops, Patriot missile systems to Poland</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3672,12 +3963,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-21T01:14:02.122000</t>
+          <t>2025-08-21T04:32:09.196000</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3693,7 +3984,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.739005</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -3734,7 +4025,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.740005</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -3754,7 +4045,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
+          <t>GAA players protest over Allianz sponsorship</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3769,12 +4060,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:45.497000</t>
+          <t>2025-08-21T04:27:37.747000</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3785,25 +4076,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.774010</t>
+          <t>2025-08-21T04:36:42.272599</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3814,15 +4105,15 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -3831,11 +4122,11 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.775005</t>
+          <t>2025-08-21T04:36:42.272599</t>
         </is>
       </c>
       <c r="W9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3851,7 +4142,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hurricane 'Erin' puts U.S. east coast on alert</t>
+          <t>The greatest gamble in military history… and why it backfired</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3866,12 +4157,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:45.452000</t>
+          <t>2025-08-21T04:26:27.123000</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3882,25 +4173,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.794006</t>
+          <t>2025-08-21T04:36:42.290598</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3911,7 +4202,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -3928,7 +4219,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.794006</t>
+          <t>2025-08-21T04:36:42.290598</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -3948,7 +4239,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
+          <t>Hurricane Erin: Met Office details 'unsettled and windy' weather as storms loom</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3963,12 +4254,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:41.438000</t>
+          <t>2025-08-21T04:26:07.124000</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3979,25 +4270,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Natural Disaster</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.304594</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4008,15 +4299,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -4025,11 +4316,11 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.305597</t>
         </is>
       </c>
       <c r="W11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4045,7 +4336,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hurricane Erin threatens the U.S. East Coast.</t>
+          <t>OPINION: Yet Another Example of Cultural Vandalism by Thai Military Forces</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4065,7 +4356,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:36.563000</t>
+          <t>2025-08-21T04:25:08.606000</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4076,25 +4367,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.823010</t>
+          <t>2025-08-21T04:36:42.321595</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4105,7 +4396,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -4122,7 +4413,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.824016</t>
+          <t>2025-08-21T04:36:42.321595</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -4142,7 +4433,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>How powerful is the U.S. military deployment off the coast of Venezuela?</t>
+          <t>Mukachevo recovers from Russian missile attack, authorities warn residents to close windows</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4157,12 +4448,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:28.900000</t>
+          <t>2025-08-21T04:24:14.403000</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4173,25 +4464,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.836004</t>
+          <t>2025-08-21T04:36:42.340597</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4202,15 +4493,15 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -4219,7 +4510,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.836004</t>
+          <t>2025-08-21T04:36:42.340597</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -4239,7 +4530,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Epa Colombia transferred from Buen Pastor to military garrison</t>
+          <t>Microsoft grapples with arrests, protests over Israeli military's use of its tech</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4259,7 +4550,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:02.819000</t>
+          <t>2025-08-21T04:24:07.806000</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4270,25 +4561,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Protest</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.847005</t>
+          <t>2025-08-21T04:36:42.355598</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -4299,7 +4590,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -4316,7 +4607,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.847005</t>
+          <t>2025-08-21T04:36:42.355598</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -4336,7 +4627,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Remains of missing man found after being swept away by a flood in Antioquia</t>
+          <t>India tests ballistic missile</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4351,12 +4642,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:55.125000</t>
+          <t>2025-08-21T04:23:54.214000</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4367,25 +4658,25 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.861004</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4396,15 +4687,15 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -4413,11 +4704,11 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.862006</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="W15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4433,7 +4724,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Burkina Faso military junta declares UN representative persona non grata</t>
+          <t>Mexico's Sheinbaum rejects US military deployment near Venezuela</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4448,12 +4739,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:41.064000</t>
+          <t>2025-08-21T04:23:47.386000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4469,7 +4760,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.874003</t>
+          <t>2025-08-21T04:36:42.380601</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -4510,7 +4801,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.874003</t>
+          <t>2025-08-21T04:36:42.380601</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -4530,7 +4821,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sutil reopens flank in Matthei's campaign for military regime: "For me it is not a dictatorship, because dictatorships perpetuate themselves in pow...</t>
+          <t>Experts warn Bangladesh's financial sector at high risk from cyber threats</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4545,12 +4836,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Matthei</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:21.092000</t>
+          <t>2025-08-21T04:23:38.413000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4561,25 +4852,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Coup/Political Unrest</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.890004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -4590,15 +4881,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -4607,11 +4898,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.890004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4627,7 +4918,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
+          <t>US Navy sailor convicted of espionage for sharing sensitive military information with China</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4642,12 +4933,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:20.323000</t>
+          <t>2025-08-21T04:23:33.275000</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -4658,25 +4949,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.420637</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -4687,15 +4978,15 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -4704,11 +4995,11 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.420637</t>
         </is>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4724,7 +5015,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
+          <t>US seizes $700mn in Maduro assets as military presence rises in Caribbean</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4739,12 +5030,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:13.968000</t>
+          <t>2025-08-21T04:23:29.655000</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -4755,25 +5046,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Military Escalation</t>
+          <t>Coup/Political Unrest</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.431603</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -4784,15 +5075,15 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="T19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -4801,11 +5092,11 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.432599</t>
         </is>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4821,7 +5112,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Near-term chances of an eruption at Alaska's Mount Spurr volcano now considered 'extremely low'</t>
+          <t>China's military prepares to unveil its latest weapons in parade celebrating end of World War II</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4836,12 +5127,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alaska</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:01.572000</t>
+          <t>2025-08-21T04:23:29.121000</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4852,25 +5143,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Natural Disaster</t>
+          <t>Military Escalation</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.925007</t>
+          <t>2025-08-21T04:36:42.448599</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -4881,15 +5172,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="T20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -4898,11 +5189,11 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.926004</t>
+          <t>2025-08-21T04:36:42.449599</t>
         </is>
       </c>
       <c r="W20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4918,7 +5209,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hurricane Erin dramatically shifts trajectory after lashing the Caribbean with rain and high winds</t>
+          <t>5.4-magnitude quake in Myanmar felt in Bangkok, says earthquake dept</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4933,12 +5224,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:01.549000</t>
+          <t>2025-08-21T04:23:09.131000</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4954,7 +5245,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.939008</t>
+          <t>2025-08-21T04:36:42.459598</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -4995,10 +5286,301 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.939008</t>
+          <t>2025-08-21T04:36:42.459598</t>
         </is>
       </c>
       <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Israeli military says first stages of assault on Gaza City have begun</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gaza City</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:22:13.508000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Coup/Political Unrest</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.475597</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.475597</t>
+        </is>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Couple assaulted, robbed during home invasion in Princes Town</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:22:11.143000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Coup/Political Unrest</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.488599</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.488599</t>
+        </is>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Israel moviliza reservistas y prepara invasión en Ciudad de Gaza</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:21:26.060000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Coup/Political Unrest</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.500630</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.500630</t>
+        </is>
+      </c>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5013,7 +5595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5753,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
+          <t>N. Korea likely has covert missile base near China border: US think tank</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5186,12 +5768,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:14:02.122000</t>
+          <t>2025-08-21T04:36:09.463000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5207,7 +5789,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.739005</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -5244,7 +5826,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.740005</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -5252,7 +5834,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: U.S.)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: China)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -5282,7 +5864,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
+          <t>India tests nuclear capable missile a week ahead of Modi's visit to China</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5297,12 +5879,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:45.497000</t>
+          <t>2025-08-21T04:35:10.190000</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5318,7 +5900,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.774010</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -5355,7 +5937,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.775005</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -5363,7 +5945,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Pakistan)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: India)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -5393,7 +5975,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
+          <t>Netherlands sending 300 troops, Patriot missile systems to Poland</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5413,7 +5995,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:41.438000</t>
+          <t>2025-08-21T04:32:09.196000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -5429,7 +6011,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -5466,7 +6048,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -5504,7 +6086,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
+          <t>India tests ballistic missile</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5519,12 +6101,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:20.323000</t>
+          <t>2025-08-21T04:23:54.214000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -5540,7 +6122,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -5577,7 +6159,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -5585,7 +6167,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: U.S.)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: India)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -5615,7 +6197,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
+          <t>Experts warn Bangladesh's financial sector at high risk from cyber threats</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5630,12 +6212,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:13.968000</t>
+          <t>2025-08-21T04:23:38.413000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -5651,7 +6233,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -5688,7 +6270,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -5696,7 +6278,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Israel)</t>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: Bangladesh)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -5710,6 +6292,117 @@
         </is>
       </c>
       <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>China's military prepares to unveil its latest weapons in parade celebrating end of World War II</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:23:29.121000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.448599</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.449599</t>
+        </is>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Defense, Oil &amp; Gas, Cybersecurity, Gold/Safe-Havens (Country: China)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>LMT, RTX, XLE, GLD, SFL, HACK</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Defense bullish; region negative; commodities bullish</t>
+        </is>
+      </c>
+      <c r="AA7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5724,7 +6417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5862,7 +6555,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Russian hackers attacked sensitive U.S. systems, FBI says</t>
+          <t>N. Korea likely has covert missile base near China border: US think tank</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5877,12 +6570,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:14:02.122000</t>
+          <t>2025-08-21T04:36:09.463000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5898,7 +6591,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.739005</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -5939,7 +6632,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.740005</t>
+          <t>2025-08-21T04:36:42.236601</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -5959,7 +6652,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amid tension with Pakistan, India successfully test-fired the Agni-5 ballistic missile, capable of carrying nuclear warheads.</t>
+          <t>India tests nuclear capable missile a week ahead of Modi's visit to China</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5974,12 +6667,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:45.497000</t>
+          <t>2025-08-21T04:35:10.190000</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5995,7 +6688,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.774010</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -6036,7 +6729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.775005</t>
+          <t>2025-08-21T04:36:42.249601</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -6056,7 +6749,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Netherlands announces shipment of two Patriot missile systems to Poland</t>
+          <t>Netherlands sending 300 troops, Patriot missile systems to Poland</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6076,7 +6769,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:13:41.438000</t>
+          <t>2025-08-21T04:32:09.196000</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6092,7 +6785,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -6133,7 +6826,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.811006</t>
+          <t>2025-08-21T04:36:42.261601</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -6153,7 +6846,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hurricane Erin Strengthens as U.S. Warns of Flooding in North Carolina</t>
+          <t>India tests ballistic missile</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6168,12 +6861,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:20.323000</t>
+          <t>2025-08-21T04:23:54.214000</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -6189,7 +6882,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -6230,7 +6923,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.898002</t>
+          <t>2025-08-21T04:36:42.367596</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -6250,7 +6943,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Israel calls up 60,000 reservists with invasion of Gaza's largest city imminent</t>
+          <t>Experts warn Bangladesh's financial sector at high risk from cyber threats</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6265,12 +6958,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:12:13.968000</t>
+          <t>2025-08-21T04:23:38.413000</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -6286,7 +6979,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -6327,10 +7020,107 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-08-21T01:19:09.911004</t>
+          <t>2025-08-21T04:36:42.402599</t>
         </is>
       </c>
       <c r="W6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NEWS_KEYWORD_MATCH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LSEG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>China's military prepares to unveil its latest weapons in parade celebrating end of World War II</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>News Headline</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Geopolitical/Economic/Natural</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:23:29.121000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Military Escalation</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.448599</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025-08-21T04:36:42.449599</t>
+        </is>
+      </c>
+      <c r="W7" t="b">
         <v>1</v>
       </c>
     </row>
